--- a/Data6.xlsx
+++ b/Data6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\# Bioelectronics\4th year\Indoor-Localiztion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D234B3-6BEA-48BE-B3B1-6F539E865202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92FD783-7CFB-494E-9C3B-A69779C764FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Previous Port:</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>class</t>
+  </si>
+  <si>
+    <t>class2</t>
   </si>
 </sst>
 </file>
@@ -305,13 +308,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>14</xdr:col>
+          <xdr:col>15</xdr:col>
           <xdr:colOff>324196</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>58189</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>16</xdr:col>
+          <xdr:col>17</xdr:col>
           <xdr:colOff>548640</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -746,29 +749,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L320"/>
+  <dimension ref="A1:M320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="T48" sqref="T48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="257" width="9.125" customWidth="1"/>
+    <col min="3" max="4" width="11" style="12" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="258" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="15" customFormat="1" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="15" customFormat="1" ht="13.1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -778,35 +781,38 @@
       <c r="C1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -817,11 +823,11 @@
         <v>12</v>
       </c>
       <c r="D2" s="6">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6">
         <v>-66</v>
       </c>
-      <c r="E2" s="6">
-        <v>-99</v>
-      </c>
       <c r="F2" s="6">
         <v>-99</v>
       </c>
@@ -831,20 +837,23 @@
       <c r="H2" s="6">
         <v>-99</v>
       </c>
-      <c r="I2" s="10">
-        <v>-99</v>
-      </c>
-      <c r="J2" s="4">
-        <v>-99</v>
-      </c>
-      <c r="K2" s="17">
+      <c r="I2" s="6">
+        <v>-99</v>
+      </c>
+      <c r="J2" s="10">
+        <v>-99</v>
+      </c>
+      <c r="K2" s="4">
+        <v>-99</v>
+      </c>
+      <c r="L2" s="17">
         <v>-79</v>
       </c>
-      <c r="L2" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -854,35 +863,38 @@
       <c r="C3" s="6">
         <v>12</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="6">
+        <v>6</v>
+      </c>
+      <c r="E3" s="10">
         <v>-67</v>
       </c>
-      <c r="E3" s="10">
+      <c r="F3" s="10">
         <v>-70</v>
       </c>
-      <c r="F3" s="10">
-        <v>-99</v>
-      </c>
       <c r="G3" s="10">
         <v>-99</v>
       </c>
       <c r="H3" s="10">
+        <v>-99</v>
+      </c>
+      <c r="I3" s="10">
         <v>-77</v>
       </c>
-      <c r="I3" s="10">
+      <c r="J3" s="10">
         <v>-76</v>
       </c>
-      <c r="J3" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K3" s="17">
+      <c r="K3" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L3" s="17">
         <v>-76</v>
       </c>
-      <c r="L3" s="17">
+      <c r="M3" s="17">
         <v>-77</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -893,7 +905,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="6">
-        <v>-99</v>
+        <v>6</v>
       </c>
       <c r="E4" s="6">
         <v>-99</v>
@@ -901,7 +913,7 @@
       <c r="F4" s="6">
         <v>-99</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="6">
         <v>-99</v>
       </c>
       <c r="H4" s="10">
@@ -910,17 +922,20 @@
       <c r="I4" s="10">
         <v>-99</v>
       </c>
-      <c r="J4" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K4" s="17">
+      <c r="J4" s="10">
+        <v>-99</v>
+      </c>
+      <c r="K4" s="5">
         <v>-99</v>
       </c>
       <c r="L4" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -931,15 +946,15 @@
         <v>12</v>
       </c>
       <c r="D5" s="6">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6">
         <v>-65</v>
       </c>
-      <c r="E5" s="6">
-        <v>-99</v>
-      </c>
       <c r="F5" s="6">
         <v>-99</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="6">
         <v>-99</v>
       </c>
       <c r="H5" s="10">
@@ -948,17 +963,20 @@
       <c r="I5" s="10">
         <v>-99</v>
       </c>
-      <c r="J5" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K5" s="17">
+      <c r="J5" s="10">
+        <v>-99</v>
+      </c>
+      <c r="K5" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L5" s="17">
         <v>-79</v>
       </c>
-      <c r="L5" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>1</v>
       </c>
@@ -969,34 +987,37 @@
         <v>12</v>
       </c>
       <c r="D6" s="6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6">
         <v>-68</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="6">
         <v>-74</v>
       </c>
-      <c r="F6" s="6">
-        <v>-99</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="G6" s="6">
         <v>-99</v>
       </c>
       <c r="H6" s="10">
         <v>-99</v>
       </c>
       <c r="I6" s="10">
+        <v>-99</v>
+      </c>
+      <c r="J6" s="10">
         <v>-76</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <v>-86</v>
       </c>
-      <c r="K6" s="17">
+      <c r="L6" s="17">
         <v>-83</v>
       </c>
-      <c r="L6" s="17">
+      <c r="M6" s="17">
         <v>-80</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>1</v>
       </c>
@@ -1007,15 +1028,15 @@
         <v>12</v>
       </c>
       <c r="D7" s="6">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6">
         <v>-75</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <v>-78</v>
       </c>
-      <c r="F7" s="6">
-        <v>-99</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="G7" s="6">
         <v>-99</v>
       </c>
       <c r="H7" s="10">
@@ -1024,17 +1045,20 @@
       <c r="I7" s="10">
         <v>-99</v>
       </c>
-      <c r="J7" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K7" s="17">
+      <c r="J7" s="10">
+        <v>-99</v>
+      </c>
+      <c r="K7" s="5">
         <v>-99</v>
       </c>
       <c r="L7" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>1</v>
       </c>
@@ -1045,7 +1069,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="6">
-        <v>-99</v>
+        <v>6</v>
       </c>
       <c r="E8" s="6">
         <v>-99</v>
@@ -1053,26 +1077,29 @@
       <c r="F8" s="6">
         <v>-99</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="6">
         <v>-99</v>
       </c>
       <c r="H8" s="10">
+        <v>-99</v>
+      </c>
+      <c r="I8" s="10">
         <v>-81</v>
       </c>
-      <c r="I8" s="10">
+      <c r="J8" s="10">
         <v>-82</v>
       </c>
-      <c r="J8" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K8" s="17">
+      <c r="K8" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L8" s="17">
         <v>-82</v>
       </c>
-      <c r="L8" s="17">
+      <c r="M8" s="17">
         <v>-81</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -1082,35 +1109,38 @@
       <c r="C9" s="6">
         <v>12</v>
       </c>
-      <c r="D9" s="7">
-        <v>-99</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="D9" s="6">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7">
+        <v>-99</v>
+      </c>
+      <c r="F9" s="11">
         <v>-75</v>
       </c>
-      <c r="F9" s="7">
-        <v>-99</v>
-      </c>
-      <c r="G9" s="11">
+      <c r="G9" s="7">
         <v>-99</v>
       </c>
       <c r="H9" s="11">
         <v>-99</v>
       </c>
-      <c r="I9" s="10">
-        <v>-99</v>
-      </c>
-      <c r="J9" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K9" s="17">
+      <c r="I9" s="11">
+        <v>-99</v>
+      </c>
+      <c r="J9" s="10">
+        <v>-99</v>
+      </c>
+      <c r="K9" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L9" s="17">
         <v>-74</v>
       </c>
-      <c r="L9" s="17">
+      <c r="M9" s="17">
         <v>-75</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>1</v>
       </c>
@@ -1121,34 +1151,37 @@
         <v>12</v>
       </c>
       <c r="D10" s="6">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6">
         <v>-67</v>
       </c>
-      <c r="E10" s="6">
-        <v>-99</v>
-      </c>
       <c r="F10" s="6">
         <v>-99</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>-99</v>
       </c>
       <c r="H10" s="7">
+        <v>-99</v>
+      </c>
+      <c r="I10" s="7">
         <v>-82</v>
       </c>
-      <c r="I10" s="10">
+      <c r="J10" s="10">
         <v>-81</v>
       </c>
-      <c r="J10" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K10" s="17">
+      <c r="K10" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L10" s="17">
         <v>-81</v>
       </c>
-      <c r="L10" s="17">
+      <c r="M10" s="17">
         <v>-79</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>1</v>
       </c>
@@ -1158,35 +1191,38 @@
       <c r="C11" s="6">
         <v>12</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="6">
+        <v>6</v>
+      </c>
+      <c r="E11" s="10">
         <v>-77</v>
       </c>
-      <c r="E11" s="10">
-        <v>-99</v>
-      </c>
-      <c r="F11" s="6">
-        <v>-99</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="F11" s="10">
+        <v>-99</v>
+      </c>
+      <c r="G11" s="6">
         <v>-99</v>
       </c>
       <c r="H11" s="10">
+        <v>-99</v>
+      </c>
+      <c r="I11" s="10">
         <v>-79</v>
       </c>
-      <c r="I11" s="10">
+      <c r="J11" s="10">
         <v>-80</v>
       </c>
-      <c r="J11" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K11" s="17">
-        <v>-81</v>
+      <c r="K11" s="5">
+        <v>-99</v>
       </c>
       <c r="L11" s="17">
         <v>-81</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="17">
+        <v>-81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>1</v>
       </c>
@@ -1196,16 +1232,16 @@
       <c r="C12" s="6">
         <v>12</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="6">
+        <v>6</v>
+      </c>
+      <c r="E12" s="10">
         <v>-66</v>
       </c>
-      <c r="E12" s="10">
-        <v>-99</v>
-      </c>
-      <c r="F12" s="6">
-        <v>-99</v>
-      </c>
-      <c r="G12" s="10">
+      <c r="F12" s="10">
+        <v>-99</v>
+      </c>
+      <c r="G12" s="6">
         <v>-99</v>
       </c>
       <c r="H12" s="10">
@@ -1214,17 +1250,20 @@
       <c r="I12" s="10">
         <v>-99</v>
       </c>
-      <c r="J12" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K12" s="17">
+      <c r="J12" s="10">
+        <v>-99</v>
+      </c>
+      <c r="K12" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L12" s="17">
         <v>-70</v>
       </c>
-      <c r="L12" s="17">
+      <c r="M12" s="17">
         <v>-68</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>1</v>
       </c>
@@ -1234,35 +1273,38 @@
       <c r="C13" s="6">
         <v>12</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="6">
+        <v>6</v>
+      </c>
+      <c r="E13" s="10">
         <v>-68</v>
       </c>
-      <c r="E13" s="10">
+      <c r="F13" s="10">
         <v>-69</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G13" s="6">
         <v>-84</v>
       </c>
-      <c r="G13" s="10">
-        <v>-99</v>
-      </c>
       <c r="H13" s="10">
+        <v>-99</v>
+      </c>
+      <c r="I13" s="10">
         <v>-76</v>
       </c>
-      <c r="I13" s="10">
+      <c r="J13" s="10">
         <v>-65</v>
       </c>
-      <c r="J13" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K13" s="17">
+      <c r="K13" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L13" s="17">
         <v>-67</v>
       </c>
-      <c r="L13" s="17">
+      <c r="M13" s="17">
         <v>-65</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>1</v>
       </c>
@@ -1272,35 +1314,38 @@
       <c r="C14" s="6">
         <v>12</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="6">
+        <v>6</v>
+      </c>
+      <c r="E14" s="10">
         <v>-73</v>
       </c>
-      <c r="E14" s="6">
-        <v>-99</v>
-      </c>
       <c r="F14" s="6">
         <v>-99</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="6">
         <v>-99</v>
       </c>
       <c r="H14" s="10">
+        <v>-99</v>
+      </c>
+      <c r="I14" s="10">
         <v>-85</v>
       </c>
-      <c r="I14" s="10">
-        <v>-99</v>
-      </c>
-      <c r="J14" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K14" s="17">
+      <c r="J14" s="10">
+        <v>-99</v>
+      </c>
+      <c r="K14" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L14" s="17">
         <v>-76</v>
       </c>
-      <c r="L14" s="17">
+      <c r="M14" s="17">
         <v>-74</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>1</v>
       </c>
@@ -1310,35 +1355,38 @@
       <c r="C15" s="6">
         <v>12</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="6">
+        <v>6</v>
+      </c>
+      <c r="E15" s="10">
         <v>-67</v>
       </c>
-      <c r="E15" s="10">
-        <v>-99</v>
-      </c>
-      <c r="F15" s="6">
-        <v>-99</v>
-      </c>
-      <c r="G15" s="10">
+      <c r="F15" s="10">
+        <v>-99</v>
+      </c>
+      <c r="G15" s="6">
         <v>-99</v>
       </c>
       <c r="H15" s="10">
+        <v>-99</v>
+      </c>
+      <c r="I15" s="10">
         <v>-79</v>
       </c>
-      <c r="I15" s="10">
-        <v>-99</v>
-      </c>
-      <c r="J15" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K15" s="17">
+      <c r="J15" s="10">
+        <v>-99</v>
+      </c>
+      <c r="K15" s="5">
         <v>-99</v>
       </c>
       <c r="L15" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>1</v>
       </c>
@@ -1348,16 +1396,16 @@
       <c r="C16" s="6">
         <v>12</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="6">
+        <v>6</v>
+      </c>
+      <c r="E16" s="10">
         <v>-74</v>
       </c>
-      <c r="E16" s="10">
-        <v>-99</v>
-      </c>
-      <c r="F16" s="6">
-        <v>-99</v>
-      </c>
-      <c r="G16" s="10">
+      <c r="F16" s="10">
+        <v>-99</v>
+      </c>
+      <c r="G16" s="6">
         <v>-99</v>
       </c>
       <c r="H16" s="10">
@@ -1366,17 +1414,20 @@
       <c r="I16" s="10">
         <v>-99</v>
       </c>
-      <c r="J16" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K16" s="17">
+      <c r="J16" s="10">
+        <v>-99</v>
+      </c>
+      <c r="K16" s="5">
         <v>-99</v>
       </c>
       <c r="L16" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -1386,35 +1437,38 @@
       <c r="C17" s="6">
         <v>12</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
+        <v>6</v>
+      </c>
+      <c r="E17" s="5">
         <v>-57</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F17" s="5">
         <v>-72</v>
       </c>
-      <c r="F17" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>-99</v>
       </c>
       <c r="H17" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I17" s="5">
         <v>-77</v>
       </c>
-      <c r="I17" s="5">
+      <c r="J17" s="5">
         <v>-66</v>
       </c>
-      <c r="J17" s="5">
+      <c r="K17" s="5">
         <v>-87</v>
       </c>
-      <c r="K17" s="17">
+      <c r="L17" s="17">
         <v>-66</v>
       </c>
-      <c r="L17" s="17">
+      <c r="M17" s="17">
         <v>-67</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>1</v>
       </c>
@@ -1424,35 +1478,38 @@
       <c r="C18" s="6">
         <v>12</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="6">
+        <v>6</v>
+      </c>
+      <c r="E18" s="5">
         <v>-58</v>
       </c>
-      <c r="E18" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F18" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="F18" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G18" s="4">
         <v>-99</v>
       </c>
       <c r="H18" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I18" s="5">
         <v>-81</v>
       </c>
-      <c r="I18" s="5">
-        <v>-99</v>
-      </c>
       <c r="J18" s="5">
         <v>-99</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="5">
         <v>-99</v>
       </c>
       <c r="L18" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>1</v>
       </c>
@@ -1462,16 +1519,16 @@
       <c r="C19" s="6">
         <v>12</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="6">
+        <v>6</v>
+      </c>
+      <c r="E19" s="5">
         <v>-62</v>
       </c>
-      <c r="E19" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F19" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G19" s="4">
         <v>-99</v>
       </c>
       <c r="H19" s="5">
@@ -1483,14 +1540,17 @@
       <c r="J19" s="5">
         <v>-99</v>
       </c>
-      <c r="K19" s="17">
-        <v>-66</v>
+      <c r="K19" s="5">
+        <v>-99</v>
       </c>
       <c r="L19" s="17">
         <v>-66</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="17">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>1</v>
       </c>
@@ -1500,35 +1560,38 @@
       <c r="C20" s="6">
         <v>12</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="6">
+        <v>6</v>
+      </c>
+      <c r="E20" s="4">
         <v>-62</v>
       </c>
-      <c r="E20" s="5">
+      <c r="F20" s="5">
         <v>-71</v>
       </c>
-      <c r="F20" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>-99</v>
       </c>
       <c r="H20" s="5">
         <v>-99</v>
       </c>
       <c r="I20" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J20" s="5">
         <v>-75</v>
       </c>
-      <c r="J20" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K20" s="17">
+      <c r="K20" s="5">
         <v>-99</v>
       </c>
       <c r="L20" s="17">
+        <v>-99</v>
+      </c>
+      <c r="M20" s="17">
         <v>-75</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>1</v>
       </c>
@@ -1538,35 +1601,38 @@
       <c r="C21" s="6">
         <v>12</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="6">
+        <v>6</v>
+      </c>
+      <c r="E21" s="5">
         <v>-58</v>
       </c>
-      <c r="E21" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F21" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="F21" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G21" s="4">
         <v>-99</v>
       </c>
       <c r="H21" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I21" s="5">
         <v>-80</v>
       </c>
-      <c r="I21" s="5">
+      <c r="J21" s="5">
         <v>-69</v>
       </c>
-      <c r="J21" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K21" s="17">
+      <c r="K21" s="5">
         <v>-99</v>
       </c>
       <c r="L21" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>1</v>
       </c>
@@ -1576,16 +1642,16 @@
       <c r="C22" s="6">
         <v>12</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="6">
+        <v>6</v>
+      </c>
+      <c r="E22" s="5">
         <v>-70</v>
       </c>
-      <c r="E22" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F22" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="F22" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G22" s="4">
         <v>-99</v>
       </c>
       <c r="H22" s="5">
@@ -1597,14 +1663,17 @@
       <c r="J22" s="5">
         <v>-99</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L22" s="17">
         <v>-74</v>
       </c>
-      <c r="L22" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -1614,35 +1683,38 @@
       <c r="C23" s="6">
         <v>12</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="6">
+        <v>6</v>
+      </c>
+      <c r="E23" s="5">
         <v>-71</v>
       </c>
-      <c r="E23" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F23" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="F23" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G23" s="4">
         <v>-99</v>
       </c>
       <c r="H23" s="5">
         <v>-99</v>
       </c>
       <c r="I23" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J23" s="5">
         <v>-74</v>
       </c>
-      <c r="J23" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K23" s="17">
-        <v>-75</v>
+      <c r="K23" s="5">
+        <v>-99</v>
       </c>
       <c r="L23" s="17">
         <v>-75</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="17">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>1</v>
       </c>
@@ -1652,35 +1724,38 @@
       <c r="C24" s="6">
         <v>12</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="6">
+        <v>6</v>
+      </c>
+      <c r="E24" s="5">
         <v>-74</v>
       </c>
-      <c r="E24" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F24" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="F24" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G24" s="4">
         <v>-99</v>
       </c>
       <c r="H24" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I24" s="5">
         <v>-79</v>
       </c>
-      <c r="I24" s="5">
+      <c r="J24" s="5">
         <v>-75</v>
       </c>
-      <c r="J24" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K24" s="17">
+      <c r="K24" s="5">
         <v>-99</v>
       </c>
       <c r="L24" s="17">
+        <v>-99</v>
+      </c>
+      <c r="M24" s="17">
         <v>-73</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>1</v>
       </c>
@@ -1690,35 +1765,38 @@
       <c r="C25" s="6">
         <v>12</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="6">
+        <v>6</v>
+      </c>
+      <c r="E25" s="5">
         <v>-60</v>
       </c>
-      <c r="E25" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F25" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G25" s="4">
         <v>-99</v>
       </c>
       <c r="H25" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I25" s="5">
         <v>-73</v>
       </c>
-      <c r="I25" s="5">
+      <c r="J25" s="5">
         <v>-68</v>
       </c>
-      <c r="J25" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K25" s="17">
+      <c r="K25" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L25" s="17">
         <v>-71</v>
       </c>
-      <c r="L25" s="17">
+      <c r="M25" s="17">
         <v>-67</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>1</v>
       </c>
@@ -1728,35 +1806,38 @@
       <c r="C26" s="6">
         <v>12</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="6">
+        <v>6</v>
+      </c>
+      <c r="E26" s="5">
         <v>-64</v>
       </c>
-      <c r="E26" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F26" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="F26" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G26" s="4">
         <v>-99</v>
       </c>
       <c r="H26" s="5">
         <v>-99</v>
       </c>
       <c r="I26" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J26" s="5">
         <v>-73</v>
       </c>
-      <c r="J26" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K26" s="17">
-        <v>-71</v>
+      <c r="K26" s="5">
+        <v>-99</v>
       </c>
       <c r="L26" s="17">
         <v>-71</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="17">
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>1</v>
       </c>
@@ -1766,35 +1847,38 @@
       <c r="C27" s="6">
         <v>12</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="6">
+        <v>6</v>
+      </c>
+      <c r="E27" s="4">
         <v>-66</v>
       </c>
-      <c r="E27" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F27" s="4">
+      <c r="F27" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G27" s="4">
         <v>-92</v>
       </c>
-      <c r="G27" s="5">
-        <v>-99</v>
-      </c>
       <c r="H27" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I27" s="5">
         <v>-81</v>
       </c>
-      <c r="I27" s="5">
+      <c r="J27" s="5">
         <v>-74</v>
       </c>
-      <c r="J27" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K27" s="17">
+      <c r="K27" s="5">
         <v>-99</v>
       </c>
       <c r="L27" s="17">
+        <v>-99</v>
+      </c>
+      <c r="M27" s="17">
         <v>-72</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>1</v>
       </c>
@@ -1804,35 +1888,38 @@
       <c r="C28" s="6">
         <v>12</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="6">
+        <v>6</v>
+      </c>
+      <c r="E28" s="5">
         <v>-68</v>
       </c>
-      <c r="E28" s="5">
+      <c r="F28" s="5">
         <v>-77</v>
       </c>
-      <c r="F28" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <v>-99</v>
       </c>
       <c r="H28" s="5">
         <v>-99</v>
       </c>
       <c r="I28" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J28" s="5">
         <v>-77</v>
       </c>
-      <c r="J28" s="5">
+      <c r="K28" s="5">
         <v>-85</v>
       </c>
-      <c r="K28" s="17">
+      <c r="L28" s="17">
         <v>-77</v>
       </c>
-      <c r="L28" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>1</v>
       </c>
@@ -1842,35 +1929,38 @@
       <c r="C29" s="6">
         <v>12</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="6">
+        <v>6</v>
+      </c>
+      <c r="E29" s="5">
         <v>-62</v>
       </c>
-      <c r="E29" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F29" s="4">
+      <c r="F29" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G29" s="4">
         <v>-83</v>
       </c>
-      <c r="G29" s="5">
-        <v>-99</v>
-      </c>
       <c r="H29" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I29" s="5">
         <v>-73</v>
       </c>
-      <c r="I29" s="5">
-        <v>-99</v>
-      </c>
       <c r="J29" s="5">
         <v>-99</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L29" s="17">
         <v>-63</v>
       </c>
-      <c r="L29" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>1</v>
       </c>
@@ -1880,35 +1970,38 @@
       <c r="C30" s="6">
         <v>12</v>
       </c>
-      <c r="D30" s="5">
-        <v>-99</v>
+      <c r="D30" s="6">
+        <v>6</v>
       </c>
       <c r="E30" s="5">
         <v>-99</v>
       </c>
-      <c r="F30" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="F30" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G30" s="4">
         <v>-99</v>
       </c>
       <c r="H30" s="5">
         <v>-99</v>
       </c>
       <c r="I30" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J30" s="5">
         <v>-74</v>
       </c>
-      <c r="J30" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K30" s="17">
+      <c r="K30" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L30" s="17">
         <v>-72</v>
       </c>
-      <c r="L30" s="17">
+      <c r="M30" s="17">
         <v>-74</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -1918,35 +2011,38 @@
       <c r="C31" s="6">
         <v>12</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="6">
+        <v>6</v>
+      </c>
+      <c r="E31" s="5">
         <v>-61</v>
       </c>
-      <c r="E31" s="5">
+      <c r="F31" s="5">
         <v>-73</v>
       </c>
-      <c r="F31" s="4">
+      <c r="G31" s="4">
         <v>-87</v>
       </c>
-      <c r="G31" s="5">
-        <v>-99</v>
-      </c>
       <c r="H31" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I31" s="5">
         <v>-81</v>
       </c>
-      <c r="I31" s="5">
+      <c r="J31" s="5">
         <v>-82</v>
       </c>
-      <c r="J31" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K31" s="17">
+      <c r="K31" s="5">
         <v>-99</v>
       </c>
       <c r="L31" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>1</v>
       </c>
@@ -1956,35 +2052,38 @@
       <c r="C32" s="6">
         <v>12</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="6">
+        <v>6</v>
+      </c>
+      <c r="E32" s="5">
         <v>-73</v>
       </c>
-      <c r="E32" s="5">
+      <c r="F32" s="5">
         <v>-74</v>
       </c>
-      <c r="F32" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <v>-99</v>
       </c>
       <c r="H32" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I32" s="5">
         <v>-81</v>
       </c>
-      <c r="I32" s="5">
+      <c r="J32" s="5">
         <v>-77</v>
       </c>
-      <c r="J32" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K32" s="17">
+      <c r="K32" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L32" s="17">
         <v>-72</v>
       </c>
-      <c r="L32" s="17">
+      <c r="M32" s="17">
         <v>-71</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>1</v>
       </c>
@@ -1994,12 +2093,12 @@
       <c r="C33" s="6">
         <v>12</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="6">
+        <v>6</v>
+      </c>
+      <c r="E33" s="5">
         <v>-55</v>
       </c>
-      <c r="E33" s="5">
-        <v>-99</v>
-      </c>
       <c r="F33" s="5">
         <v>-99</v>
       </c>
@@ -2010,19 +2109,22 @@
         <v>-99</v>
       </c>
       <c r="I33" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J33" s="5">
         <v>-65</v>
       </c>
-      <c r="J33" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K33" s="17">
-        <v>-66</v>
+      <c r="K33" s="5">
+        <v>-99</v>
       </c>
       <c r="L33" s="17">
         <v>-66</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="17">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>1</v>
       </c>
@@ -2032,18 +2134,18 @@
       <c r="C34" s="6">
         <v>12</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="6">
+        <v>6</v>
+      </c>
+      <c r="E34" s="5">
         <v>-69</v>
       </c>
-      <c r="E34" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F34" s="4">
+      <c r="F34" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G34" s="4">
         <v>-91</v>
       </c>
-      <c r="G34" s="5">
-        <v>-99</v>
-      </c>
       <c r="H34" s="5">
         <v>-99</v>
       </c>
@@ -2053,14 +2155,17 @@
       <c r="J34" s="5">
         <v>-99</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="5">
         <v>-99</v>
       </c>
       <c r="L34" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>1</v>
       </c>
@@ -2070,16 +2175,16 @@
       <c r="C35" s="6">
         <v>12</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="6">
+        <v>6</v>
+      </c>
+      <c r="E35" s="5">
         <v>-71</v>
       </c>
-      <c r="E35" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F35" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="F35" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G35" s="4">
         <v>-99</v>
       </c>
       <c r="H35" s="5">
@@ -2091,14 +2196,17 @@
       <c r="J35" s="5">
         <v>-99</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K35" s="5">
         <v>-99</v>
       </c>
       <c r="L35" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>1</v>
       </c>
@@ -2108,16 +2216,16 @@
       <c r="C36" s="6">
         <v>12</v>
       </c>
-      <c r="D36" s="5">
-        <v>-99</v>
+      <c r="D36" s="6">
+        <v>6</v>
       </c>
       <c r="E36" s="5">
         <v>-99</v>
       </c>
-      <c r="F36" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="F36" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G36" s="4">
         <v>-99</v>
       </c>
       <c r="H36" s="5">
@@ -2129,14 +2237,17 @@
       <c r="J36" s="5">
         <v>-99</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K36" s="5">
         <v>-99</v>
       </c>
       <c r="L36" s="17">
+        <v>-99</v>
+      </c>
+      <c r="M36" s="17">
         <v>-82</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>1</v>
       </c>
@@ -2146,35 +2257,38 @@
       <c r="C37" s="6">
         <v>12</v>
       </c>
-      <c r="D37" s="5">
-        <v>-99</v>
+      <c r="D37" s="6">
+        <v>6</v>
       </c>
       <c r="E37" s="5">
         <v>-99</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G37" s="4">
         <v>-90</v>
       </c>
-      <c r="G37" s="5">
-        <v>-99</v>
-      </c>
       <c r="H37" s="5">
         <v>-99</v>
       </c>
       <c r="I37" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J37" s="5">
         <v>-82</v>
       </c>
-      <c r="J37" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K37" s="17">
+      <c r="K37" s="5">
         <v>-99</v>
       </c>
       <c r="L37" s="17">
+        <v>-99</v>
+      </c>
+      <c r="M37" s="17">
         <v>-83</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>1</v>
       </c>
@@ -2184,35 +2298,38 @@
       <c r="C38" s="6">
         <v>12</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="6">
+        <v>6</v>
+      </c>
+      <c r="E38" s="5">
         <v>-70</v>
       </c>
-      <c r="E38" s="5">
+      <c r="F38" s="5">
         <v>-77</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <v>-87</v>
       </c>
-      <c r="G38" s="5">
-        <v>-99</v>
-      </c>
       <c r="H38" s="5">
         <v>-99</v>
       </c>
       <c r="I38" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J38" s="5">
         <v>-74</v>
       </c>
-      <c r="J38" s="5">
+      <c r="K38" s="5">
         <v>-89</v>
       </c>
-      <c r="K38" s="17">
-        <v>-99</v>
-      </c>
       <c r="L38" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>1</v>
       </c>
@@ -2222,18 +2339,18 @@
       <c r="C39" s="6">
         <v>12</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="6">
+        <v>6</v>
+      </c>
+      <c r="E39" s="5">
         <v>-66</v>
       </c>
-      <c r="E39" s="5">
+      <c r="F39" s="5">
         <v>-71</v>
       </c>
-      <c r="F39" s="4">
+      <c r="G39" s="4">
         <v>-88</v>
       </c>
-      <c r="G39" s="5">
-        <v>-99</v>
-      </c>
       <c r="H39" s="5">
         <v>-99</v>
       </c>
@@ -2243,14 +2360,17 @@
       <c r="J39" s="5">
         <v>-99</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K39" s="5">
         <v>-99</v>
       </c>
       <c r="L39" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>1</v>
       </c>
@@ -2260,16 +2380,16 @@
       <c r="C40" s="6">
         <v>12</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="6">
+        <v>6</v>
+      </c>
+      <c r="E40" s="5">
         <v>-65</v>
       </c>
-      <c r="E40" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F40" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G40" s="5">
+      <c r="F40" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G40" s="4">
         <v>-99</v>
       </c>
       <c r="H40" s="5">
@@ -2281,14 +2401,17 @@
       <c r="J40" s="5">
         <v>-99</v>
       </c>
-      <c r="K40" s="17">
+      <c r="K40" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L40" s="17">
         <v>-78</v>
       </c>
-      <c r="L40" s="17">
+      <c r="M40" s="17">
         <v>-77</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>1</v>
       </c>
@@ -2298,35 +2421,38 @@
       <c r="C41" s="6">
         <v>12</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="6">
+        <v>6</v>
+      </c>
+      <c r="E41" s="5">
         <v>-62</v>
       </c>
-      <c r="E41" s="5">
+      <c r="F41" s="5">
         <v>-71</v>
       </c>
-      <c r="F41" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G41" s="5">
+      <c r="G41" s="4">
         <v>-99</v>
       </c>
       <c r="H41" s="5">
         <v>-99</v>
       </c>
       <c r="I41" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J41" s="5">
         <v>-77</v>
       </c>
-      <c r="J41" s="5">
+      <c r="K41" s="5">
         <v>-86</v>
       </c>
-      <c r="K41" s="17">
+      <c r="L41" s="17">
         <v>-76</v>
       </c>
-      <c r="L41" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>1</v>
       </c>
@@ -2336,35 +2462,38 @@
       <c r="C42" s="6">
         <v>12</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="6">
+        <v>6</v>
+      </c>
+      <c r="E42" s="5">
         <v>-65</v>
       </c>
-      <c r="E42" s="5">
+      <c r="F42" s="5">
         <v>-74</v>
       </c>
-      <c r="F42" s="4">
+      <c r="G42" s="4">
         <v>-89</v>
       </c>
-      <c r="G42" s="5">
-        <v>-99</v>
-      </c>
       <c r="H42" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I42" s="5">
         <v>-76</v>
       </c>
-      <c r="I42" s="5">
-        <v>-99</v>
-      </c>
       <c r="J42" s="5">
         <v>-99</v>
       </c>
-      <c r="K42" s="17">
+      <c r="K42" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L42" s="17">
         <v>-70</v>
       </c>
-      <c r="L42" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>1</v>
       </c>
@@ -2374,35 +2503,38 @@
       <c r="C43" s="6">
         <v>12</v>
       </c>
-      <c r="D43" s="5">
-        <v>-99</v>
+      <c r="D43" s="6">
+        <v>6</v>
       </c>
       <c r="E43" s="5">
         <v>-99</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G43" s="4">
         <v>-87</v>
       </c>
-      <c r="G43" s="5">
-        <v>-99</v>
-      </c>
       <c r="H43" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I43" s="5">
         <v>-78</v>
       </c>
-      <c r="I43" s="5">
-        <v>-99</v>
-      </c>
       <c r="J43" s="5">
         <v>-99</v>
       </c>
-      <c r="K43" s="17">
+      <c r="K43" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L43" s="17">
         <v>-74</v>
       </c>
-      <c r="L43" s="17">
+      <c r="M43" s="17">
         <v>-73</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>1</v>
       </c>
@@ -2412,35 +2544,38 @@
       <c r="C44" s="6">
         <v>12</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="6">
+        <v>6</v>
+      </c>
+      <c r="E44" s="5">
         <v>-63</v>
       </c>
-      <c r="E44" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F44" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G44" s="5">
+      <c r="F44" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G44" s="4">
         <v>-99</v>
       </c>
       <c r="H44" s="5">
         <v>-99</v>
       </c>
       <c r="I44" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J44" s="5">
         <v>-76</v>
       </c>
-      <c r="J44" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K44" s="17">
+      <c r="K44" s="5">
         <v>-99</v>
       </c>
       <c r="L44" s="17">
+        <v>-99</v>
+      </c>
+      <c r="M44" s="17">
         <v>-77</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>1</v>
       </c>
@@ -2450,35 +2585,38 @@
       <c r="C45" s="6">
         <v>12</v>
       </c>
-      <c r="D45" s="5">
-        <v>-70</v>
+      <c r="D45" s="6">
+        <v>6</v>
       </c>
       <c r="E45" s="5">
         <v>-70</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="5">
+        <v>-70</v>
+      </c>
+      <c r="G45" s="4">
         <v>-89</v>
       </c>
-      <c r="G45" s="5">
-        <v>-99</v>
-      </c>
       <c r="H45" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I45" s="5">
         <v>-76</v>
       </c>
-      <c r="I45" s="5">
+      <c r="J45" s="5">
         <v>-75</v>
       </c>
-      <c r="J45" s="5">
+      <c r="K45" s="5">
         <v>-92</v>
       </c>
-      <c r="K45" s="17">
+      <c r="L45" s="17">
         <v>-74</v>
       </c>
-      <c r="L45" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>1</v>
       </c>
@@ -2488,18 +2626,18 @@
       <c r="C46" s="6">
         <v>12</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="6">
+        <v>6</v>
+      </c>
+      <c r="E46" s="5">
         <v>-66</v>
       </c>
-      <c r="E46" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F46" s="4">
+      <c r="F46" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G46" s="4">
         <v>-89</v>
       </c>
-      <c r="G46" s="5">
-        <v>-99</v>
-      </c>
       <c r="H46" s="5">
         <v>-99</v>
       </c>
@@ -2509,14 +2647,17 @@
       <c r="J46" s="5">
         <v>-99</v>
       </c>
-      <c r="K46" s="17">
+      <c r="K46" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L46" s="17">
         <v>-75</v>
       </c>
-      <c r="L46" s="17">
+      <c r="M46" s="17">
         <v>-73</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>1</v>
       </c>
@@ -2526,35 +2667,38 @@
       <c r="C47" s="6">
         <v>12</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="6">
+        <v>6</v>
+      </c>
+      <c r="E47" s="5">
         <v>-74</v>
       </c>
-      <c r="E47" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F47" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G47" s="5">
+      <c r="F47" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G47" s="4">
         <v>-99</v>
       </c>
       <c r="H47" s="5">
         <v>-99</v>
       </c>
       <c r="I47" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J47" s="5">
         <v>-77</v>
       </c>
-      <c r="J47" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K47" s="17">
+      <c r="K47" s="5">
         <v>-99</v>
       </c>
       <c r="L47" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>1</v>
       </c>
@@ -2564,12 +2708,12 @@
       <c r="C48" s="6">
         <v>12</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="6">
+        <v>6</v>
+      </c>
+      <c r="E48" s="5">
         <v>-71</v>
       </c>
-      <c r="E48" s="5">
-        <v>-99</v>
-      </c>
       <c r="F48" s="5">
         <v>-99</v>
       </c>
@@ -2580,19 +2724,22 @@
         <v>-99</v>
       </c>
       <c r="I48" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J48" s="5">
         <v>-76</v>
       </c>
-      <c r="J48" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K48" s="17">
+      <c r="K48" s="5">
         <v>-99</v>
       </c>
       <c r="L48" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>1</v>
       </c>
@@ -2602,35 +2749,38 @@
       <c r="C49" s="6">
         <v>12</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="6">
+        <v>6</v>
+      </c>
+      <c r="E49" s="5">
         <v>-69</v>
       </c>
-      <c r="E49" s="5">
-        <v>-99</v>
-      </c>
       <c r="F49" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G49" s="5">
         <v>-90</v>
       </c>
-      <c r="G49" s="5">
-        <v>-99</v>
-      </c>
       <c r="H49" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I49" s="5">
         <v>-81</v>
       </c>
-      <c r="I49" s="5">
+      <c r="J49" s="5">
         <v>-70</v>
       </c>
-      <c r="J49" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K49" s="17">
+      <c r="K49" s="5">
         <v>-99</v>
       </c>
       <c r="L49" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>1</v>
       </c>
@@ -2640,35 +2790,38 @@
       <c r="C50" s="6">
         <v>12</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="6">
+        <v>6</v>
+      </c>
+      <c r="E50" s="5">
         <v>-64</v>
       </c>
-      <c r="E50" s="5">
-        <v>-99</v>
-      </c>
       <c r="F50" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G50" s="5">
         <v>-92</v>
       </c>
-      <c r="G50" s="5">
-        <v>-99</v>
-      </c>
       <c r="H50" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I50" s="5">
         <v>-79</v>
       </c>
-      <c r="I50" s="5">
-        <v>-99</v>
-      </c>
       <c r="J50" s="5">
         <v>-99</v>
       </c>
-      <c r="K50" s="17">
+      <c r="K50" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L50" s="17">
         <v>-74</v>
       </c>
-      <c r="L50" s="17">
+      <c r="M50" s="17">
         <v>-73</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>1</v>
       </c>
@@ -2678,12 +2831,12 @@
       <c r="C51" s="6">
         <v>12</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="6">
+        <v>6</v>
+      </c>
+      <c r="E51" s="5">
         <v>-66</v>
       </c>
-      <c r="E51" s="5">
-        <v>-99</v>
-      </c>
       <c r="F51" s="5">
         <v>-99</v>
       </c>
@@ -2694,19 +2847,22 @@
         <v>-99</v>
       </c>
       <c r="I51" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J51" s="5">
         <v>-77</v>
       </c>
-      <c r="J51" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K51" s="17">
+      <c r="K51" s="5">
         <v>-99</v>
       </c>
       <c r="L51" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>1</v>
       </c>
@@ -2716,12 +2872,12 @@
       <c r="C52" s="6">
         <v>12</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="6">
+        <v>6</v>
+      </c>
+      <c r="E52" s="5">
         <v>-76</v>
       </c>
-      <c r="E52" s="5">
-        <v>-99</v>
-      </c>
       <c r="F52" s="5">
         <v>-99</v>
       </c>
@@ -2732,19 +2888,22 @@
         <v>-99</v>
       </c>
       <c r="I52" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J52" s="5">
         <v>-74</v>
       </c>
-      <c r="J52" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K52" s="17">
+      <c r="K52" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L52" s="17">
         <v>-75</v>
       </c>
-      <c r="L52" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>1</v>
       </c>
@@ -2754,35 +2913,38 @@
       <c r="C53" s="6">
         <v>12</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="6">
+        <v>6</v>
+      </c>
+      <c r="E53" s="5">
         <v>-67</v>
       </c>
-      <c r="E53" s="5">
+      <c r="F53" s="5">
         <v>-73</v>
       </c>
-      <c r="F53" s="5">
+      <c r="G53" s="5">
         <v>-90</v>
       </c>
-      <c r="G53" s="5">
-        <v>-99</v>
-      </c>
       <c r="H53" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I53" s="5">
         <v>-79</v>
       </c>
-      <c r="I53" s="5">
+      <c r="J53" s="5">
         <v>-74</v>
       </c>
-      <c r="J53" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K53" s="17">
+      <c r="K53" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L53" s="17">
         <v>-76</v>
       </c>
-      <c r="L53" s="17">
+      <c r="M53" s="17">
         <v>-75</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>1</v>
       </c>
@@ -2792,8 +2954,8 @@
       <c r="C54" s="6">
         <v>12</v>
       </c>
-      <c r="D54" s="5">
-        <v>-99</v>
+      <c r="D54" s="6">
+        <v>6</v>
       </c>
       <c r="E54" s="5">
         <v>-99</v>
@@ -2805,22 +2967,25 @@
         <v>-99</v>
       </c>
       <c r="H54" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I54" s="5">
         <v>-79</v>
       </c>
-      <c r="I54" s="5">
-        <v>-99</v>
-      </c>
       <c r="J54" s="5">
         <v>-99</v>
       </c>
-      <c r="K54" s="17">
+      <c r="K54" s="5">
         <v>-99</v>
       </c>
       <c r="L54" s="17">
+        <v>-99</v>
+      </c>
+      <c r="M54" s="17">
         <v>-81</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>1</v>
       </c>
@@ -2830,8 +2995,8 @@
       <c r="C55" s="6">
         <v>12</v>
       </c>
-      <c r="D55" s="5">
-        <v>-99</v>
+      <c r="D55" s="6">
+        <v>6</v>
       </c>
       <c r="E55" s="5">
         <v>-99</v>
@@ -2846,19 +3011,22 @@
         <v>-99</v>
       </c>
       <c r="I55" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J55" s="5">
         <v>-71</v>
       </c>
-      <c r="J55" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K55" s="17">
+      <c r="K55" s="5">
         <v>-99</v>
       </c>
       <c r="L55" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>1</v>
       </c>
@@ -2868,15 +3036,15 @@
       <c r="C56" s="6">
         <v>12</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="6">
+        <v>6</v>
+      </c>
+      <c r="E56" s="5">
         <v>-61</v>
       </c>
-      <c r="E56" s="5">
+      <c r="F56" s="5">
         <v>-77</v>
       </c>
-      <c r="F56" s="5">
-        <v>-99</v>
-      </c>
       <c r="G56" s="5">
         <v>-99</v>
       </c>
@@ -2889,14 +3057,17 @@
       <c r="J56" s="5">
         <v>-99</v>
       </c>
-      <c r="K56" s="17">
+      <c r="K56" s="5">
+        <v>-99</v>
+      </c>
+      <c r="L56" s="17">
         <v>-77</v>
       </c>
-      <c r="L56" s="17">
+      <c r="M56" s="17">
         <v>-78</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>1</v>
       </c>
@@ -2906,35 +3077,38 @@
       <c r="C57" s="6">
         <v>12</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="6">
+        <v>6</v>
+      </c>
+      <c r="E57" s="5">
         <v>-61</v>
       </c>
-      <c r="E57" s="5">
-        <v>-99</v>
-      </c>
       <c r="F57" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G57" s="5">
         <v>-86</v>
       </c>
-      <c r="G57" s="5">
-        <v>-99</v>
-      </c>
       <c r="H57" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I57" s="5">
         <v>-74</v>
       </c>
-      <c r="I57" s="5">
+      <c r="J57" s="5">
         <v>-71</v>
       </c>
-      <c r="J57" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K57" s="17">
+      <c r="K57" s="5">
         <v>-99</v>
       </c>
       <c r="L57" s="17">
+        <v>-99</v>
+      </c>
+      <c r="M57" s="17">
         <v>-69</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>1</v>
       </c>
@@ -2944,12 +3118,12 @@
       <c r="C58" s="6">
         <v>12</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="6">
+        <v>6</v>
+      </c>
+      <c r="E58" s="5">
         <v>-64</v>
       </c>
-      <c r="E58" s="5">
-        <v>-99</v>
-      </c>
       <c r="F58" s="5">
         <v>-99</v>
       </c>
@@ -2957,22 +3131,25 @@
         <v>-99</v>
       </c>
       <c r="H58" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I58" s="5">
         <v>-79</v>
       </c>
-      <c r="I58" s="5">
+      <c r="J58" s="5">
         <v>-76</v>
       </c>
-      <c r="J58" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K58" s="17">
+      <c r="K58" s="5">
         <v>-99</v>
       </c>
       <c r="L58" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>1</v>
       </c>
@@ -2982,35 +3159,38 @@
       <c r="C59" s="6">
         <v>12</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="6">
+        <v>6</v>
+      </c>
+      <c r="E59" s="5">
         <v>-66</v>
       </c>
-      <c r="E59" s="5">
+      <c r="F59" s="5">
         <v>-68</v>
       </c>
-      <c r="F59" s="5">
+      <c r="G59" s="5">
         <v>-88</v>
       </c>
-      <c r="G59" s="5">
-        <v>-99</v>
-      </c>
       <c r="H59" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I59" s="5">
         <v>-74</v>
       </c>
-      <c r="I59" s="5">
-        <v>-99</v>
-      </c>
       <c r="J59" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K59" s="5">
         <v>-90</v>
       </c>
-      <c r="K59" s="17">
+      <c r="L59" s="17">
         <v>-75</v>
       </c>
-      <c r="L59" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>1</v>
       </c>
@@ -3020,35 +3200,38 @@
       <c r="C60" s="6">
         <v>12</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="6">
+        <v>6</v>
+      </c>
+      <c r="E60" s="5">
         <v>-59</v>
       </c>
-      <c r="E60" s="5">
+      <c r="F60" s="5">
         <v>-69</v>
       </c>
-      <c r="F60" s="5">
-        <v>-99</v>
-      </c>
       <c r="G60" s="5">
         <v>-99</v>
       </c>
       <c r="H60" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I60" s="5">
         <v>-76</v>
       </c>
-      <c r="I60" s="5">
-        <v>-99</v>
-      </c>
       <c r="J60" s="5">
         <v>-99</v>
       </c>
-      <c r="K60" s="17">
+      <c r="K60" s="5">
         <v>-99</v>
       </c>
       <c r="L60" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>1</v>
       </c>
@@ -3058,35 +3241,38 @@
       <c r="C61" s="6">
         <v>12</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="6">
+        <v>6</v>
+      </c>
+      <c r="E61" s="5">
         <v>-64</v>
       </c>
-      <c r="E61" s="5">
-        <v>-99</v>
-      </c>
       <c r="F61" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G61" s="5">
         <v>-89</v>
       </c>
-      <c r="G61" s="5">
-        <v>-99</v>
-      </c>
       <c r="H61" s="5">
         <v>-99</v>
       </c>
       <c r="I61" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J61" s="5">
         <v>-76</v>
       </c>
-      <c r="J61" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K61" s="17">
+      <c r="K61" s="5">
         <v>-99</v>
       </c>
       <c r="L61" s="17">
+        <v>-99</v>
+      </c>
+      <c r="M61" s="17">
         <v>-75</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>20</v>
       </c>
@@ -3094,9 +3280,7 @@
         <v>20</v>
       </c>
       <c r="C62" s="5"/>
-      <c r="D62" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="D62" s="5"/>
       <c r="E62" s="5" t="s">
         <v>20</v>
       </c>
@@ -3115,14 +3299,17 @@
       <c r="J62" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K62" s="17" t="s">
+      <c r="K62" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L62" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -3133,10 +3320,11 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
-      <c r="K63" s="17"/>
+      <c r="K63" s="5"/>
       <c r="L63" s="17"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="17"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -3147,10 +3335,11 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
-      <c r="K64" s="17"/>
+      <c r="K64" s="5"/>
       <c r="L64" s="17"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="17"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -3161,10 +3350,11 @@
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
-      <c r="K65" s="17"/>
+      <c r="K65" s="5"/>
       <c r="L65" s="17"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="17"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -3175,10 +3365,11 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
-      <c r="K66" s="17"/>
+      <c r="K66" s="5"/>
       <c r="L66" s="17"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="17"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -3189,10 +3380,11 @@
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
-      <c r="K67" s="17"/>
+      <c r="K67" s="5"/>
       <c r="L67" s="17"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="17"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -3203,10 +3395,11 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
-      <c r="K68" s="17"/>
+      <c r="K68" s="5"/>
       <c r="L68" s="17"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="17"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -3217,10 +3410,11 @@
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
-      <c r="K69" s="17"/>
+      <c r="K69" s="5"/>
       <c r="L69" s="17"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="17"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -3231,10 +3425,11 @@
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
-      <c r="K70" s="17"/>
+      <c r="K70" s="5"/>
       <c r="L70" s="17"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="17"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -3245,10 +3440,11 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
-      <c r="K71" s="17"/>
+      <c r="K71" s="5"/>
       <c r="L71" s="17"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="17"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -3259,10 +3455,11 @@
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
-      <c r="K72" s="17"/>
+      <c r="K72" s="5"/>
       <c r="L72" s="17"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="17"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -3273,10 +3470,11 @@
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
-      <c r="K73" s="17"/>
+      <c r="K73" s="5"/>
       <c r="L73" s="17"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="17"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -3287,10 +3485,11 @@
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
-      <c r="K74" s="17"/>
+      <c r="K74" s="5"/>
       <c r="L74" s="17"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="17"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -3301,10 +3500,11 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
-      <c r="K75" s="17"/>
+      <c r="K75" s="5"/>
       <c r="L75" s="17"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="17"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -3315,10 +3515,11 @@
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
-      <c r="K76" s="17"/>
+      <c r="K76" s="5"/>
       <c r="L76" s="17"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="17"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -3329,10 +3530,11 @@
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
-      <c r="K77" s="17"/>
+      <c r="K77" s="5"/>
       <c r="L77" s="17"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="17"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -3343,10 +3545,11 @@
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
-      <c r="K78" s="17"/>
+      <c r="K78" s="5"/>
       <c r="L78" s="17"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M78" s="17"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -3357,10 +3560,11 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
-      <c r="K79" s="17"/>
+      <c r="K79" s="5"/>
       <c r="L79" s="17"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M79" s="17"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -3371,10 +3575,11 @@
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
-      <c r="K80" s="17"/>
+      <c r="K80" s="5"/>
       <c r="L80" s="17"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="17"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -3385,10 +3590,11 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
-      <c r="K81" s="17"/>
+      <c r="K81" s="5"/>
       <c r="L81" s="17"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="17"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -3399,10 +3605,11 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
-      <c r="K82" s="17"/>
+      <c r="K82" s="5"/>
       <c r="L82" s="17"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="17"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -3413,10 +3620,11 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
-      <c r="K83" s="17"/>
+      <c r="K83" s="5"/>
       <c r="L83" s="17"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="17"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -3427,10 +3635,11 @@
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
-      <c r="K84" s="17"/>
+      <c r="K84" s="5"/>
       <c r="L84" s="17"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="17"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -3441,10 +3650,11 @@
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
-      <c r="K85" s="17"/>
+      <c r="K85" s="5"/>
       <c r="L85" s="17"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="17"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -3455,10 +3665,11 @@
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
-      <c r="K86" s="17"/>
+      <c r="K86" s="5"/>
       <c r="L86" s="17"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="17"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -3469,10 +3680,11 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
-      <c r="K87" s="17"/>
+      <c r="K87" s="5"/>
       <c r="L87" s="17"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="17"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -3483,10 +3695,11 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
-      <c r="K88" s="17"/>
+      <c r="K88" s="5"/>
       <c r="L88" s="17"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="17"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -3497,10 +3710,11 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
-      <c r="K89" s="17"/>
+      <c r="K89" s="5"/>
       <c r="L89" s="17"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="17"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -3511,10 +3725,11 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
-      <c r="K90" s="17"/>
+      <c r="K90" s="5"/>
       <c r="L90" s="17"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="17"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -3525,10 +3740,11 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
-      <c r="K91" s="17"/>
+      <c r="K91" s="5"/>
       <c r="L91" s="17"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="17"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3539,10 +3755,11 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
-      <c r="K92" s="17"/>
+      <c r="K92" s="5"/>
       <c r="L92" s="17"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="17"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3553,10 +3770,11 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
-      <c r="K93" s="17"/>
+      <c r="K93" s="5"/>
       <c r="L93" s="17"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="17"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3567,10 +3785,11 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
-      <c r="K94" s="17"/>
+      <c r="K94" s="5"/>
       <c r="L94" s="17"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="17"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3581,10 +3800,11 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
-      <c r="K95" s="17"/>
+      <c r="K95" s="5"/>
       <c r="L95" s="17"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="17"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3595,10 +3815,11 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
-      <c r="K96" s="17"/>
+      <c r="K96" s="5"/>
       <c r="L96" s="17"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="17"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3609,10 +3830,11 @@
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
-      <c r="K97" s="17"/>
+      <c r="K97" s="5"/>
       <c r="L97" s="17"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="17"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3623,10 +3845,11 @@
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
-      <c r="K98" s="17"/>
+      <c r="K98" s="5"/>
       <c r="L98" s="17"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="17"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3637,10 +3860,11 @@
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
-      <c r="K99" s="17"/>
+      <c r="K99" s="5"/>
       <c r="L99" s="17"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="17"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3651,10 +3875,11 @@
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
-      <c r="K100" s="17"/>
+      <c r="K100" s="5"/>
       <c r="L100" s="17"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="17"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3665,10 +3890,11 @@
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
-      <c r="K101" s="17"/>
+      <c r="K101" s="5"/>
       <c r="L101" s="17"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="17"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3679,10 +3905,11 @@
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
-      <c r="K102" s="17"/>
+      <c r="K102" s="5"/>
       <c r="L102" s="17"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M102" s="17"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -3693,10 +3920,11 @@
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
-      <c r="K103" s="17"/>
+      <c r="K103" s="5"/>
       <c r="L103" s="17"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M103" s="17"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -3707,10 +3935,11 @@
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
-      <c r="K104" s="17"/>
+      <c r="K104" s="5"/>
       <c r="L104" s="17"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M104" s="17"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -3721,10 +3950,11 @@
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
-      <c r="K105" s="17"/>
+      <c r="K105" s="5"/>
       <c r="L105" s="17"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M105" s="17"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -3735,10 +3965,11 @@
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
-      <c r="K106" s="17"/>
+      <c r="K106" s="5"/>
       <c r="L106" s="17"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M106" s="17"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -3749,10 +3980,11 @@
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
-      <c r="K107" s="17"/>
+      <c r="K107" s="5"/>
       <c r="L107" s="17"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M107" s="17"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3763,10 +3995,11 @@
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
-      <c r="K108" s="17"/>
+      <c r="K108" s="5"/>
       <c r="L108" s="17"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M108" s="17"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -3777,10 +4010,11 @@
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
-      <c r="K109" s="17"/>
+      <c r="K109" s="5"/>
       <c r="L109" s="17"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M109" s="17"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -3791,10 +4025,11 @@
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
-      <c r="K110" s="17"/>
+      <c r="K110" s="5"/>
       <c r="L110" s="17"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M110" s="17"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -3805,10 +4040,11 @@
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
-      <c r="K111" s="17"/>
+      <c r="K111" s="5"/>
       <c r="L111" s="17"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M111" s="17"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -3819,10 +4055,11 @@
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
-      <c r="K112" s="17"/>
+      <c r="K112" s="5"/>
       <c r="L112" s="17"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M112" s="17"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -3833,10 +4070,11 @@
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
-      <c r="K113" s="17"/>
+      <c r="K113" s="5"/>
       <c r="L113" s="17"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M113" s="17"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -3847,10 +4085,11 @@
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
-      <c r="K114" s="17"/>
+      <c r="K114" s="5"/>
       <c r="L114" s="17"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M114" s="17"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -3861,10 +4100,11 @@
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
-      <c r="K115" s="17"/>
+      <c r="K115" s="5"/>
       <c r="L115" s="17"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M115" s="17"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -3875,10 +4115,11 @@
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
-      <c r="K116" s="17"/>
+      <c r="K116" s="5"/>
       <c r="L116" s="17"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M116" s="17"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -3889,10 +4130,11 @@
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
-      <c r="K117" s="17"/>
+      <c r="K117" s="5"/>
       <c r="L117" s="17"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M117" s="17"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -3903,10 +4145,11 @@
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
-      <c r="K118" s="17"/>
+      <c r="K118" s="5"/>
       <c r="L118" s="17"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M118" s="17"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -3917,10 +4160,11 @@
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
-      <c r="K119" s="17"/>
+      <c r="K119" s="5"/>
       <c r="L119" s="17"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M119" s="17"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -3931,10 +4175,11 @@
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
-      <c r="K120" s="17"/>
+      <c r="K120" s="5"/>
       <c r="L120" s="17"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M120" s="17"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -3945,10 +4190,11 @@
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
-      <c r="K121" s="17"/>
+      <c r="K121" s="5"/>
       <c r="L121" s="17"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M121" s="17"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -3959,10 +4205,11 @@
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
-      <c r="K122" s="17"/>
+      <c r="K122" s="5"/>
       <c r="L122" s="17"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M122" s="17"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -3973,10 +4220,11 @@
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
-      <c r="K123" s="17"/>
+      <c r="K123" s="5"/>
       <c r="L123" s="17"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M123" s="17"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -3987,10 +4235,11 @@
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
-      <c r="K124" s="17"/>
+      <c r="K124" s="5"/>
       <c r="L124" s="17"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M124" s="17"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -4001,10 +4250,11 @@
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
-      <c r="K125" s="17"/>
+      <c r="K125" s="5"/>
       <c r="L125" s="17"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M125" s="17"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -4015,10 +4265,11 @@
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
-      <c r="K126" s="17"/>
+      <c r="K126" s="5"/>
       <c r="L126" s="17"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M126" s="17"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -4029,10 +4280,11 @@
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
-      <c r="K127" s="17"/>
+      <c r="K127" s="5"/>
       <c r="L127" s="17"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M127" s="17"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -4043,10 +4295,11 @@
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
-      <c r="K128" s="17"/>
+      <c r="K128" s="5"/>
       <c r="L128" s="17"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M128" s="17"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -4057,10 +4310,11 @@
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
-      <c r="K129" s="17"/>
+      <c r="K129" s="5"/>
       <c r="L129" s="17"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M129" s="17"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -4071,10 +4325,11 @@
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
-      <c r="K130" s="17"/>
+      <c r="K130" s="5"/>
       <c r="L130" s="17"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M130" s="17"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -4085,10 +4340,11 @@
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
-      <c r="K131" s="17"/>
+      <c r="K131" s="5"/>
       <c r="L131" s="17"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M131" s="17"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -4099,10 +4355,11 @@
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
-      <c r="K132" s="17"/>
+      <c r="K132" s="5"/>
       <c r="L132" s="17"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M132" s="17"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -4113,10 +4370,11 @@
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
-      <c r="K133" s="17"/>
+      <c r="K133" s="5"/>
       <c r="L133" s="17"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M133" s="17"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -4127,10 +4385,11 @@
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
-      <c r="K134" s="17"/>
+      <c r="K134" s="5"/>
       <c r="L134" s="17"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M134" s="17"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4141,10 +4400,11 @@
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
-      <c r="K135" s="17"/>
+      <c r="K135" s="5"/>
       <c r="L135" s="17"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M135" s="17"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -4155,10 +4415,11 @@
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
-      <c r="K136" s="17"/>
+      <c r="K136" s="5"/>
       <c r="L136" s="17"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M136" s="17"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -4169,10 +4430,11 @@
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
-      <c r="K137" s="17"/>
+      <c r="K137" s="5"/>
       <c r="L137" s="17"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M137" s="17"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -4183,10 +4445,11 @@
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
-      <c r="K138" s="17"/>
+      <c r="K138" s="5"/>
       <c r="L138" s="17"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M138" s="17"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -4197,10 +4460,11 @@
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
-      <c r="K139" s="17"/>
+      <c r="K139" s="5"/>
       <c r="L139" s="17"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M139" s="17"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -4211,10 +4475,11 @@
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
-      <c r="K140" s="17"/>
+      <c r="K140" s="5"/>
       <c r="L140" s="17"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M140" s="17"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -4225,10 +4490,11 @@
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
-      <c r="K141" s="17"/>
+      <c r="K141" s="5"/>
       <c r="L141" s="17"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M141" s="17"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -4239,10 +4505,11 @@
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
-      <c r="K142" s="17"/>
+      <c r="K142" s="5"/>
       <c r="L142" s="17"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M142" s="17"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -4253,10 +4520,11 @@
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
-      <c r="K143" s="17"/>
+      <c r="K143" s="5"/>
       <c r="L143" s="17"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M143" s="17"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -4267,10 +4535,11 @@
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
-      <c r="K144" s="17"/>
+      <c r="K144" s="5"/>
       <c r="L144" s="17"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M144" s="17"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -4281,10 +4550,11 @@
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
-      <c r="K145" s="17"/>
+      <c r="K145" s="5"/>
       <c r="L145" s="17"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M145" s="17"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -4295,10 +4565,11 @@
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
-      <c r="K146" s="17"/>
+      <c r="K146" s="5"/>
       <c r="L146" s="17"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M146" s="17"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -4309,10 +4580,11 @@
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
-      <c r="K147" s="17"/>
+      <c r="K147" s="5"/>
       <c r="L147" s="17"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M147" s="17"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -4323,10 +4595,11 @@
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
-      <c r="K148" s="17"/>
+      <c r="K148" s="5"/>
       <c r="L148" s="17"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M148" s="17"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -4337,10 +4610,11 @@
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
-      <c r="K149" s="17"/>
+      <c r="K149" s="5"/>
       <c r="L149" s="17"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M149" s="17"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -4351,10 +4625,11 @@
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
-      <c r="K150" s="17"/>
+      <c r="K150" s="5"/>
       <c r="L150" s="17"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M150" s="17"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -4365,10 +4640,11 @@
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
-      <c r="K151" s="17"/>
+      <c r="K151" s="5"/>
       <c r="L151" s="17"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M151" s="17"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -4379,10 +4655,11 @@
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
-      <c r="K152" s="17"/>
+      <c r="K152" s="5"/>
       <c r="L152" s="17"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M152" s="17"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -4393,10 +4670,11 @@
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
-      <c r="K153" s="17"/>
+      <c r="K153" s="5"/>
       <c r="L153" s="17"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M153" s="17"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -4407,10 +4685,11 @@
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
-      <c r="K154" s="17"/>
+      <c r="K154" s="5"/>
       <c r="L154" s="17"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M154" s="17"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -4421,10 +4700,11 @@
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
-      <c r="K155" s="17"/>
+      <c r="K155" s="5"/>
       <c r="L155" s="17"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M155" s="17"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -4435,10 +4715,11 @@
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
-      <c r="K156" s="17"/>
+      <c r="K156" s="5"/>
       <c r="L156" s="17"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M156" s="17"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -4449,10 +4730,11 @@
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
-      <c r="K157" s="17"/>
+      <c r="K157" s="5"/>
       <c r="L157" s="17"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M157" s="17"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -4463,10 +4745,11 @@
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
-      <c r="K158" s="17"/>
+      <c r="K158" s="5"/>
       <c r="L158" s="17"/>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M158" s="17"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -4477,10 +4760,11 @@
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
-      <c r="K159" s="17"/>
+      <c r="K159" s="5"/>
       <c r="L159" s="17"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M159" s="17"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -4491,10 +4775,11 @@
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
-      <c r="K160" s="17"/>
+      <c r="K160" s="5"/>
       <c r="L160" s="17"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M160" s="17"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -4505,10 +4790,11 @@
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
-      <c r="K161" s="17"/>
+      <c r="K161" s="5"/>
       <c r="L161" s="17"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M161" s="17"/>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -4519,10 +4805,11 @@
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
-      <c r="K162" s="17"/>
+      <c r="K162" s="5"/>
       <c r="L162" s="17"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M162" s="17"/>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -4533,10 +4820,11 @@
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
-      <c r="K163" s="17"/>
+      <c r="K163" s="5"/>
       <c r="L163" s="17"/>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M163" s="17"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -4547,10 +4835,11 @@
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
-      <c r="K164" s="17"/>
+      <c r="K164" s="5"/>
       <c r="L164" s="17"/>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M164" s="17"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -4561,10 +4850,11 @@
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
-      <c r="K165" s="17"/>
+      <c r="K165" s="5"/>
       <c r="L165" s="17"/>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M165" s="17"/>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -4575,10 +4865,11 @@
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
-      <c r="K166" s="17"/>
+      <c r="K166" s="5"/>
       <c r="L166" s="17"/>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M166" s="17"/>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -4589,10 +4880,11 @@
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
-      <c r="K167" s="17"/>
+      <c r="K167" s="5"/>
       <c r="L167" s="17"/>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M167" s="17"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -4603,10 +4895,11 @@
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
-      <c r="K168" s="17"/>
+      <c r="K168" s="5"/>
       <c r="L168" s="17"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M168" s="17"/>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -4617,10 +4910,11 @@
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
-      <c r="K169" s="17"/>
+      <c r="K169" s="5"/>
       <c r="L169" s="17"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M169" s="17"/>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -4631,10 +4925,11 @@
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
-      <c r="K170" s="17"/>
+      <c r="K170" s="5"/>
       <c r="L170" s="17"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M170" s="17"/>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -4645,10 +4940,11 @@
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
-      <c r="K171" s="17"/>
+      <c r="K171" s="5"/>
       <c r="L171" s="17"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M171" s="17"/>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -4659,10 +4955,11 @@
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
-      <c r="K172" s="17"/>
+      <c r="K172" s="5"/>
       <c r="L172" s="17"/>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M172" s="17"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -4673,10 +4970,11 @@
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
-      <c r="K173" s="17"/>
+      <c r="K173" s="5"/>
       <c r="L173" s="17"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M173" s="17"/>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -4687,10 +4985,11 @@
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
-      <c r="K174" s="17"/>
+      <c r="K174" s="5"/>
       <c r="L174" s="17"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M174" s="17"/>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -4701,10 +5000,11 @@
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
-      <c r="K175" s="17"/>
+      <c r="K175" s="5"/>
       <c r="L175" s="17"/>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M175" s="17"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -4715,10 +5015,11 @@
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
-      <c r="K176" s="17"/>
+      <c r="K176" s="5"/>
       <c r="L176" s="17"/>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M176" s="17"/>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -4729,10 +5030,11 @@
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
-      <c r="K177" s="17"/>
+      <c r="K177" s="5"/>
       <c r="L177" s="17"/>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M177" s="17"/>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -4743,10 +5045,11 @@
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
-      <c r="K178" s="17"/>
+      <c r="K178" s="5"/>
       <c r="L178" s="17"/>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M178" s="17"/>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -4757,10 +5060,11 @@
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
-      <c r="K179" s="17"/>
+      <c r="K179" s="5"/>
       <c r="L179" s="17"/>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M179" s="17"/>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -4771,10 +5075,11 @@
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
-      <c r="K180" s="17"/>
+      <c r="K180" s="5"/>
       <c r="L180" s="17"/>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M180" s="17"/>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -4785,10 +5090,11 @@
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
-      <c r="K181" s="17"/>
+      <c r="K181" s="5"/>
       <c r="L181" s="17"/>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M181" s="17"/>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -4799,10 +5105,11 @@
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
-      <c r="K182" s="17"/>
+      <c r="K182" s="5"/>
       <c r="L182" s="17"/>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M182" s="17"/>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -4813,10 +5120,11 @@
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
-      <c r="K183" s="17"/>
+      <c r="K183" s="5"/>
       <c r="L183" s="17"/>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M183" s="17"/>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -4827,10 +5135,11 @@
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
-      <c r="K184" s="17"/>
+      <c r="K184" s="5"/>
       <c r="L184" s="17"/>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M184" s="17"/>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -4841,10 +5150,11 @@
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
-      <c r="K185" s="17"/>
+      <c r="K185" s="5"/>
       <c r="L185" s="17"/>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M185" s="17"/>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -4855,10 +5165,11 @@
       <c r="H186" s="5"/>
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
-      <c r="K186" s="17"/>
+      <c r="K186" s="5"/>
       <c r="L186" s="17"/>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M186" s="17"/>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -4869,10 +5180,11 @@
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
-      <c r="K187" s="17"/>
+      <c r="K187" s="5"/>
       <c r="L187" s="17"/>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M187" s="17"/>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -4883,10 +5195,11 @@
       <c r="H188" s="5"/>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
-      <c r="K188" s="17"/>
+      <c r="K188" s="5"/>
       <c r="L188" s="17"/>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M188" s="17"/>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -4897,10 +5210,11 @@
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
-      <c r="K189" s="17"/>
+      <c r="K189" s="5"/>
       <c r="L189" s="17"/>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M189" s="17"/>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -4911,10 +5225,11 @@
       <c r="H190" s="5"/>
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
-      <c r="K190" s="17"/>
+      <c r="K190" s="5"/>
       <c r="L190" s="17"/>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M190" s="17"/>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -4925,10 +5240,11 @@
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
-      <c r="K191" s="17"/>
+      <c r="K191" s="5"/>
       <c r="L191" s="17"/>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M191" s="17"/>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -4939,10 +5255,11 @@
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
-      <c r="K192" s="17"/>
+      <c r="K192" s="5"/>
       <c r="L192" s="17"/>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M192" s="17"/>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -4953,10 +5270,11 @@
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
-      <c r="K193" s="17"/>
+      <c r="K193" s="5"/>
       <c r="L193" s="17"/>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M193" s="17"/>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -4967,10 +5285,11 @@
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
-      <c r="K194" s="17"/>
+      <c r="K194" s="5"/>
       <c r="L194" s="17"/>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M194" s="17"/>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -4981,10 +5300,11 @@
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
-      <c r="K195" s="17"/>
+      <c r="K195" s="5"/>
       <c r="L195" s="17"/>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M195" s="17"/>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -4995,10 +5315,11 @@
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
-      <c r="K196" s="17"/>
+      <c r="K196" s="5"/>
       <c r="L196" s="17"/>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M196" s="17"/>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -5009,10 +5330,11 @@
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
-      <c r="K197" s="17"/>
+      <c r="K197" s="5"/>
       <c r="L197" s="17"/>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M197" s="17"/>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -5023,10 +5345,11 @@
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
-      <c r="K198" s="17"/>
+      <c r="K198" s="5"/>
       <c r="L198" s="17"/>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M198" s="17"/>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -5037,10 +5360,11 @@
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
-      <c r="K199" s="17"/>
+      <c r="K199" s="5"/>
       <c r="L199" s="17"/>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M199" s="17"/>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -5051,10 +5375,11 @@
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
-      <c r="K200" s="17"/>
+      <c r="K200" s="5"/>
       <c r="L200" s="17"/>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M200" s="17"/>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -5065,10 +5390,11 @@
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
-      <c r="K201" s="17"/>
+      <c r="K201" s="5"/>
       <c r="L201" s="17"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M201" s="17"/>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -5079,10 +5405,11 @@
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
-      <c r="K202" s="17"/>
+      <c r="K202" s="5"/>
       <c r="L202" s="17"/>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M202" s="17"/>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -5093,10 +5420,11 @@
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
-      <c r="K203" s="17"/>
+      <c r="K203" s="5"/>
       <c r="L203" s="17"/>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M203" s="17"/>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -5107,10 +5435,11 @@
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
-      <c r="K204" s="17"/>
+      <c r="K204" s="5"/>
       <c r="L204" s="17"/>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M204" s="17"/>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -5121,10 +5450,11 @@
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
       <c r="J205" s="5"/>
-      <c r="K205" s="17"/>
+      <c r="K205" s="5"/>
       <c r="L205" s="17"/>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M205" s="17"/>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -5135,10 +5465,11 @@
       <c r="H206" s="5"/>
       <c r="I206" s="5"/>
       <c r="J206" s="5"/>
-      <c r="K206" s="17"/>
+      <c r="K206" s="5"/>
       <c r="L206" s="17"/>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M206" s="17"/>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -5149,10 +5480,11 @@
       <c r="H207" s="5"/>
       <c r="I207" s="5"/>
       <c r="J207" s="5"/>
-      <c r="K207" s="17"/>
+      <c r="K207" s="5"/>
       <c r="L207" s="17"/>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M207" s="17"/>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -5163,10 +5495,11 @@
       <c r="H208" s="5"/>
       <c r="I208" s="5"/>
       <c r="J208" s="5"/>
-      <c r="K208" s="17"/>
+      <c r="K208" s="5"/>
       <c r="L208" s="17"/>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M208" s="17"/>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -5177,10 +5510,11 @@
       <c r="H209" s="5"/>
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
-      <c r="K209" s="17"/>
+      <c r="K209" s="5"/>
       <c r="L209" s="17"/>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M209" s="17"/>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -5191,10 +5525,11 @@
       <c r="H210" s="5"/>
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
-      <c r="K210" s="17"/>
+      <c r="K210" s="5"/>
       <c r="L210" s="17"/>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M210" s="17"/>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -5205,10 +5540,11 @@
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
-      <c r="K211" s="17"/>
+      <c r="K211" s="5"/>
       <c r="L211" s="17"/>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M211" s="17"/>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -5219,10 +5555,11 @@
       <c r="H212" s="5"/>
       <c r="I212" s="5"/>
       <c r="J212" s="5"/>
-      <c r="K212" s="17"/>
+      <c r="K212" s="5"/>
       <c r="L212" s="17"/>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M212" s="17"/>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -5233,10 +5570,11 @@
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
       <c r="J213" s="5"/>
-      <c r="K213" s="17"/>
+      <c r="K213" s="5"/>
       <c r="L213" s="17"/>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M213" s="17"/>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -5247,10 +5585,11 @@
       <c r="H214" s="5"/>
       <c r="I214" s="5"/>
       <c r="J214" s="5"/>
-      <c r="K214" s="17"/>
+      <c r="K214" s="5"/>
       <c r="L214" s="17"/>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M214" s="17"/>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -5261,10 +5600,11 @@
       <c r="H215" s="5"/>
       <c r="I215" s="5"/>
       <c r="J215" s="5"/>
-      <c r="K215" s="17"/>
+      <c r="K215" s="5"/>
       <c r="L215" s="17"/>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M215" s="17"/>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -5275,10 +5615,11 @@
       <c r="H216" s="5"/>
       <c r="I216" s="5"/>
       <c r="J216" s="5"/>
-      <c r="K216" s="17"/>
+      <c r="K216" s="5"/>
       <c r="L216" s="17"/>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M216" s="17"/>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -5289,10 +5630,11 @@
       <c r="H217" s="5"/>
       <c r="I217" s="5"/>
       <c r="J217" s="5"/>
-      <c r="K217" s="17"/>
+      <c r="K217" s="5"/>
       <c r="L217" s="17"/>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M217" s="17"/>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -5303,10 +5645,11 @@
       <c r="H218" s="5"/>
       <c r="I218" s="5"/>
       <c r="J218" s="5"/>
-      <c r="K218" s="17"/>
+      <c r="K218" s="5"/>
       <c r="L218" s="17"/>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M218" s="17"/>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -5317,10 +5660,11 @@
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
       <c r="J219" s="5"/>
-      <c r="K219" s="17"/>
+      <c r="K219" s="5"/>
       <c r="L219" s="17"/>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M219" s="17"/>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -5331,10 +5675,11 @@
       <c r="H220" s="5"/>
       <c r="I220" s="5"/>
       <c r="J220" s="5"/>
-      <c r="K220" s="17"/>
+      <c r="K220" s="5"/>
       <c r="L220" s="17"/>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M220" s="17"/>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -5345,10 +5690,11 @@
       <c r="H221" s="5"/>
       <c r="I221" s="5"/>
       <c r="J221" s="5"/>
-      <c r="K221" s="17"/>
+      <c r="K221" s="5"/>
       <c r="L221" s="17"/>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M221" s="17"/>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -5359,10 +5705,11 @@
       <c r="H222" s="5"/>
       <c r="I222" s="5"/>
       <c r="J222" s="5"/>
-      <c r="K222" s="17"/>
+      <c r="K222" s="5"/>
       <c r="L222" s="17"/>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M222" s="17"/>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -5373,10 +5720,11 @@
       <c r="H223" s="5"/>
       <c r="I223" s="5"/>
       <c r="J223" s="5"/>
-      <c r="K223" s="17"/>
+      <c r="K223" s="5"/>
       <c r="L223" s="17"/>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M223" s="17"/>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -5387,10 +5735,11 @@
       <c r="H224" s="5"/>
       <c r="I224" s="5"/>
       <c r="J224" s="5"/>
-      <c r="K224" s="17"/>
+      <c r="K224" s="5"/>
       <c r="L224" s="17"/>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M224" s="17"/>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -5401,10 +5750,11 @@
       <c r="H225" s="5"/>
       <c r="I225" s="5"/>
       <c r="J225" s="5"/>
-      <c r="K225" s="17"/>
+      <c r="K225" s="5"/>
       <c r="L225" s="17"/>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M225" s="17"/>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -5415,10 +5765,11 @@
       <c r="H226" s="5"/>
       <c r="I226" s="5"/>
       <c r="J226" s="5"/>
-      <c r="K226" s="17"/>
+      <c r="K226" s="5"/>
       <c r="L226" s="17"/>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M226" s="17"/>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -5429,10 +5780,11 @@
       <c r="H227" s="5"/>
       <c r="I227" s="5"/>
       <c r="J227" s="5"/>
-      <c r="K227" s="17"/>
+      <c r="K227" s="5"/>
       <c r="L227" s="17"/>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M227" s="17"/>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -5443,10 +5795,11 @@
       <c r="H228" s="5"/>
       <c r="I228" s="5"/>
       <c r="J228" s="5"/>
-      <c r="K228" s="17"/>
+      <c r="K228" s="5"/>
       <c r="L228" s="17"/>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M228" s="17"/>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -5457,10 +5810,11 @@
       <c r="H229" s="5"/>
       <c r="I229" s="5"/>
       <c r="J229" s="5"/>
-      <c r="K229" s="17"/>
+      <c r="K229" s="5"/>
       <c r="L229" s="17"/>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M229" s="17"/>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -5471,10 +5825,11 @@
       <c r="H230" s="5"/>
       <c r="I230" s="5"/>
       <c r="J230" s="5"/>
-      <c r="K230" s="17"/>
+      <c r="K230" s="5"/>
       <c r="L230" s="17"/>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M230" s="17"/>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -5485,10 +5840,11 @@
       <c r="H231" s="5"/>
       <c r="I231" s="5"/>
       <c r="J231" s="5"/>
-      <c r="K231" s="17"/>
+      <c r="K231" s="5"/>
       <c r="L231" s="17"/>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M231" s="17"/>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -5499,10 +5855,11 @@
       <c r="H232" s="5"/>
       <c r="I232" s="5"/>
       <c r="J232" s="5"/>
-      <c r="K232" s="17"/>
+      <c r="K232" s="5"/>
       <c r="L232" s="17"/>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M232" s="17"/>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -5513,10 +5870,11 @@
       <c r="H233" s="5"/>
       <c r="I233" s="5"/>
       <c r="J233" s="5"/>
-      <c r="K233" s="17"/>
+      <c r="K233" s="5"/>
       <c r="L233" s="17"/>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M233" s="17"/>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -5527,10 +5885,11 @@
       <c r="H234" s="5"/>
       <c r="I234" s="5"/>
       <c r="J234" s="5"/>
-      <c r="K234" s="17"/>
+      <c r="K234" s="5"/>
       <c r="L234" s="17"/>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M234" s="17"/>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -5541,10 +5900,11 @@
       <c r="H235" s="5"/>
       <c r="I235" s="5"/>
       <c r="J235" s="5"/>
-      <c r="K235" s="17"/>
+      <c r="K235" s="5"/>
       <c r="L235" s="17"/>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M235" s="17"/>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -5555,10 +5915,11 @@
       <c r="H236" s="5"/>
       <c r="I236" s="5"/>
       <c r="J236" s="5"/>
-      <c r="K236" s="17"/>
+      <c r="K236" s="5"/>
       <c r="L236" s="17"/>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M236" s="17"/>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -5569,10 +5930,11 @@
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
       <c r="J237" s="5"/>
-      <c r="K237" s="17"/>
+      <c r="K237" s="5"/>
       <c r="L237" s="17"/>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M237" s="17"/>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -5583,10 +5945,11 @@
       <c r="H238" s="5"/>
       <c r="I238" s="5"/>
       <c r="J238" s="5"/>
-      <c r="K238" s="17"/>
+      <c r="K238" s="5"/>
       <c r="L238" s="17"/>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M238" s="17"/>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -5597,10 +5960,11 @@
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
       <c r="J239" s="5"/>
-      <c r="K239" s="17"/>
+      <c r="K239" s="5"/>
       <c r="L239" s="17"/>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M239" s="17"/>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -5611,10 +5975,11 @@
       <c r="H240" s="5"/>
       <c r="I240" s="5"/>
       <c r="J240" s="5"/>
-      <c r="K240" s="17"/>
+      <c r="K240" s="5"/>
       <c r="L240" s="17"/>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M240" s="17"/>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -5625,10 +5990,11 @@
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
       <c r="J241" s="5"/>
-      <c r="K241" s="17"/>
+      <c r="K241" s="5"/>
       <c r="L241" s="17"/>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M241" s="17"/>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -5639,10 +6005,11 @@
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
       <c r="J242" s="5"/>
-      <c r="K242" s="17"/>
+      <c r="K242" s="5"/>
       <c r="L242" s="17"/>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M242" s="17"/>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -5653,10 +6020,11 @@
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
       <c r="J243" s="5"/>
-      <c r="K243" s="17"/>
+      <c r="K243" s="5"/>
       <c r="L243" s="17"/>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M243" s="17"/>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -5667,10 +6035,11 @@
       <c r="H244" s="5"/>
       <c r="I244" s="5"/>
       <c r="J244" s="5"/>
-      <c r="K244" s="17"/>
+      <c r="K244" s="5"/>
       <c r="L244" s="17"/>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M244" s="17"/>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -5681,10 +6050,11 @@
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
       <c r="J245" s="5"/>
-      <c r="K245" s="17"/>
+      <c r="K245" s="5"/>
       <c r="L245" s="17"/>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M245" s="17"/>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -5695,10 +6065,11 @@
       <c r="H246" s="5"/>
       <c r="I246" s="5"/>
       <c r="J246" s="5"/>
-      <c r="K246" s="17"/>
+      <c r="K246" s="5"/>
       <c r="L246" s="17"/>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M246" s="17"/>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -5709,10 +6080,11 @@
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
       <c r="J247" s="5"/>
-      <c r="K247" s="17"/>
+      <c r="K247" s="5"/>
       <c r="L247" s="17"/>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M247" s="17"/>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -5723,10 +6095,11 @@
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
       <c r="J248" s="5"/>
-      <c r="K248" s="17"/>
+      <c r="K248" s="5"/>
       <c r="L248" s="17"/>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M248" s="17"/>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -5737,10 +6110,11 @@
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
       <c r="J249" s="5"/>
-      <c r="K249" s="17"/>
+      <c r="K249" s="5"/>
       <c r="L249" s="17"/>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M249" s="17"/>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -5751,10 +6125,11 @@
       <c r="H250" s="5"/>
       <c r="I250" s="5"/>
       <c r="J250" s="5"/>
-      <c r="K250" s="17"/>
+      <c r="K250" s="5"/>
       <c r="L250" s="17"/>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M250" s="17"/>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -5765,10 +6140,11 @@
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
       <c r="J251" s="5"/>
-      <c r="K251" s="17"/>
+      <c r="K251" s="5"/>
       <c r="L251" s="17"/>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M251" s="17"/>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -5779,10 +6155,11 @@
       <c r="H252" s="5"/>
       <c r="I252" s="5"/>
       <c r="J252" s="5"/>
-      <c r="K252" s="17"/>
+      <c r="K252" s="5"/>
       <c r="L252" s="17"/>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M252" s="17"/>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -5793,10 +6170,11 @@
       <c r="H253" s="5"/>
       <c r="I253" s="5"/>
       <c r="J253" s="5"/>
-      <c r="K253" s="17"/>
+      <c r="K253" s="5"/>
       <c r="L253" s="17"/>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M253" s="17"/>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -5807,10 +6185,11 @@
       <c r="H254" s="5"/>
       <c r="I254" s="5"/>
       <c r="J254" s="5"/>
-      <c r="K254" s="17"/>
+      <c r="K254" s="5"/>
       <c r="L254" s="17"/>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M254" s="17"/>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -5821,10 +6200,11 @@
       <c r="H255" s="5"/>
       <c r="I255" s="5"/>
       <c r="J255" s="5"/>
-      <c r="K255" s="17"/>
+      <c r="K255" s="5"/>
       <c r="L255" s="17"/>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M255" s="17"/>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -5835,10 +6215,11 @@
       <c r="H256" s="5"/>
       <c r="I256" s="5"/>
       <c r="J256" s="5"/>
-      <c r="K256" s="17"/>
+      <c r="K256" s="5"/>
       <c r="L256" s="17"/>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M256" s="17"/>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -5849,10 +6230,11 @@
       <c r="H257" s="5"/>
       <c r="I257" s="5"/>
       <c r="J257" s="5"/>
-      <c r="K257" s="17"/>
+      <c r="K257" s="5"/>
       <c r="L257" s="17"/>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M257" s="17"/>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -5863,10 +6245,11 @@
       <c r="H258" s="5"/>
       <c r="I258" s="5"/>
       <c r="J258" s="5"/>
-      <c r="K258" s="17"/>
+      <c r="K258" s="5"/>
       <c r="L258" s="17"/>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M258" s="17"/>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -5877,10 +6260,11 @@
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
       <c r="J259" s="5"/>
-      <c r="K259" s="17"/>
+      <c r="K259" s="5"/>
       <c r="L259" s="17"/>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M259" s="17"/>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -5891,10 +6275,11 @@
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
       <c r="J260" s="5"/>
-      <c r="K260" s="17"/>
+      <c r="K260" s="5"/>
       <c r="L260" s="17"/>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M260" s="17"/>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -5905,10 +6290,11 @@
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
       <c r="J261" s="5"/>
-      <c r="K261" s="17"/>
+      <c r="K261" s="5"/>
       <c r="L261" s="17"/>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M261" s="17"/>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -5919,10 +6305,11 @@
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
       <c r="J262" s="5"/>
-      <c r="K262" s="17"/>
+      <c r="K262" s="5"/>
       <c r="L262" s="17"/>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M262" s="17"/>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -5933,10 +6320,11 @@
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
       <c r="J263" s="5"/>
-      <c r="K263" s="17"/>
+      <c r="K263" s="5"/>
       <c r="L263" s="17"/>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M263" s="17"/>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -5947,10 +6335,11 @@
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
       <c r="J264" s="5"/>
-      <c r="K264" s="17"/>
+      <c r="K264" s="5"/>
       <c r="L264" s="17"/>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M264" s="17"/>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -5961,10 +6350,11 @@
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
       <c r="J265" s="5"/>
-      <c r="K265" s="17"/>
+      <c r="K265" s="5"/>
       <c r="L265" s="17"/>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M265" s="17"/>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -5975,10 +6365,11 @@
       <c r="H266" s="5"/>
       <c r="I266" s="5"/>
       <c r="J266" s="5"/>
-      <c r="K266" s="17"/>
+      <c r="K266" s="5"/>
       <c r="L266" s="17"/>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M266" s="17"/>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -5989,10 +6380,11 @@
       <c r="H267" s="5"/>
       <c r="I267" s="5"/>
       <c r="J267" s="5"/>
-      <c r="K267" s="17"/>
+      <c r="K267" s="5"/>
       <c r="L267" s="17"/>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M267" s="17"/>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -6003,10 +6395,11 @@
       <c r="H268" s="5"/>
       <c r="I268" s="5"/>
       <c r="J268" s="5"/>
-      <c r="K268" s="17"/>
+      <c r="K268" s="5"/>
       <c r="L268" s="17"/>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M268" s="17"/>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -6017,10 +6410,11 @@
       <c r="H269" s="5"/>
       <c r="I269" s="5"/>
       <c r="J269" s="5"/>
-      <c r="K269" s="17"/>
+      <c r="K269" s="5"/>
       <c r="L269" s="17"/>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M269" s="17"/>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -6031,10 +6425,11 @@
       <c r="H270" s="5"/>
       <c r="I270" s="5"/>
       <c r="J270" s="5"/>
-      <c r="K270" s="17"/>
+      <c r="K270" s="5"/>
       <c r="L270" s="17"/>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M270" s="17"/>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -6045,10 +6440,11 @@
       <c r="H271" s="5"/>
       <c r="I271" s="5"/>
       <c r="J271" s="5"/>
-      <c r="K271" s="17"/>
+      <c r="K271" s="5"/>
       <c r="L271" s="17"/>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M271" s="17"/>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -6059,10 +6455,11 @@
       <c r="H272" s="5"/>
       <c r="I272" s="5"/>
       <c r="J272" s="5"/>
-      <c r="K272" s="17"/>
+      <c r="K272" s="5"/>
       <c r="L272" s="17"/>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M272" s="17"/>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -6073,10 +6470,11 @@
       <c r="H273" s="5"/>
       <c r="I273" s="5"/>
       <c r="J273" s="5"/>
-      <c r="K273" s="17"/>
+      <c r="K273" s="5"/>
       <c r="L273" s="17"/>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M273" s="17"/>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -6087,10 +6485,11 @@
       <c r="H274" s="5"/>
       <c r="I274" s="5"/>
       <c r="J274" s="5"/>
-      <c r="K274" s="17"/>
+      <c r="K274" s="5"/>
       <c r="L274" s="17"/>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M274" s="17"/>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -6101,10 +6500,11 @@
       <c r="H275" s="5"/>
       <c r="I275" s="5"/>
       <c r="J275" s="5"/>
-      <c r="K275" s="17"/>
+      <c r="K275" s="5"/>
       <c r="L275" s="17"/>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M275" s="17"/>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -6115,10 +6515,11 @@
       <c r="H276" s="5"/>
       <c r="I276" s="5"/>
       <c r="J276" s="5"/>
-      <c r="K276" s="17"/>
+      <c r="K276" s="5"/>
       <c r="L276" s="17"/>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M276" s="17"/>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -6129,10 +6530,11 @@
       <c r="H277" s="5"/>
       <c r="I277" s="5"/>
       <c r="J277" s="5"/>
-      <c r="K277" s="17"/>
+      <c r="K277" s="5"/>
       <c r="L277" s="17"/>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M277" s="17"/>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -6143,10 +6545,11 @@
       <c r="H278" s="5"/>
       <c r="I278" s="5"/>
       <c r="J278" s="5"/>
-      <c r="K278" s="17"/>
+      <c r="K278" s="5"/>
       <c r="L278" s="17"/>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M278" s="17"/>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -6157,10 +6560,11 @@
       <c r="H279" s="5"/>
       <c r="I279" s="5"/>
       <c r="J279" s="5"/>
-      <c r="K279" s="17"/>
+      <c r="K279" s="5"/>
       <c r="L279" s="17"/>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M279" s="17"/>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -6171,10 +6575,11 @@
       <c r="H280" s="5"/>
       <c r="I280" s="5"/>
       <c r="J280" s="5"/>
-      <c r="K280" s="17"/>
+      <c r="K280" s="5"/>
       <c r="L280" s="17"/>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M280" s="17"/>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -6185,10 +6590,11 @@
       <c r="H281" s="5"/>
       <c r="I281" s="5"/>
       <c r="J281" s="5"/>
-      <c r="K281" s="17"/>
+      <c r="K281" s="5"/>
       <c r="L281" s="17"/>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M281" s="17"/>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -6199,10 +6605,11 @@
       <c r="H282" s="5"/>
       <c r="I282" s="5"/>
       <c r="J282" s="5"/>
-      <c r="K282" s="17"/>
+      <c r="K282" s="5"/>
       <c r="L282" s="17"/>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M282" s="17"/>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -6213,10 +6620,11 @@
       <c r="H283" s="5"/>
       <c r="I283" s="5"/>
       <c r="J283" s="5"/>
-      <c r="K283" s="17"/>
+      <c r="K283" s="5"/>
       <c r="L283" s="17"/>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M283" s="17"/>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -6227,10 +6635,11 @@
       <c r="H284" s="5"/>
       <c r="I284" s="5"/>
       <c r="J284" s="5"/>
-      <c r="K284" s="17"/>
+      <c r="K284" s="5"/>
       <c r="L284" s="17"/>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M284" s="17"/>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -6241,10 +6650,11 @@
       <c r="H285" s="5"/>
       <c r="I285" s="5"/>
       <c r="J285" s="5"/>
-      <c r="K285" s="17"/>
+      <c r="K285" s="5"/>
       <c r="L285" s="17"/>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M285" s="17"/>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -6255,10 +6665,11 @@
       <c r="H286" s="5"/>
       <c r="I286" s="5"/>
       <c r="J286" s="5"/>
-      <c r="K286" s="17"/>
+      <c r="K286" s="5"/>
       <c r="L286" s="17"/>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M286" s="17"/>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -6269,10 +6680,11 @@
       <c r="H287" s="5"/>
       <c r="I287" s="5"/>
       <c r="J287" s="5"/>
-      <c r="K287" s="17"/>
+      <c r="K287" s="5"/>
       <c r="L287" s="17"/>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M287" s="17"/>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -6283,10 +6695,11 @@
       <c r="H288" s="5"/>
       <c r="I288" s="5"/>
       <c r="J288" s="5"/>
-      <c r="K288" s="17"/>
+      <c r="K288" s="5"/>
       <c r="L288" s="17"/>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M288" s="17"/>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -6297,10 +6710,11 @@
       <c r="H289" s="5"/>
       <c r="I289" s="5"/>
       <c r="J289" s="5"/>
-      <c r="K289" s="17"/>
+      <c r="K289" s="5"/>
       <c r="L289" s="17"/>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M289" s="17"/>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -6311,10 +6725,11 @@
       <c r="H290" s="5"/>
       <c r="I290" s="5"/>
       <c r="J290" s="5"/>
-      <c r="K290" s="17"/>
+      <c r="K290" s="5"/>
       <c r="L290" s="17"/>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M290" s="17"/>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -6325,10 +6740,11 @@
       <c r="H291" s="5"/>
       <c r="I291" s="5"/>
       <c r="J291" s="5"/>
-      <c r="K291" s="17"/>
+      <c r="K291" s="5"/>
       <c r="L291" s="17"/>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M291" s="17"/>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -6339,10 +6755,11 @@
       <c r="H292" s="5"/>
       <c r="I292" s="5"/>
       <c r="J292" s="5"/>
-      <c r="K292" s="17"/>
+      <c r="K292" s="5"/>
       <c r="L292" s="17"/>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M292" s="17"/>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -6353,10 +6770,11 @@
       <c r="H293" s="5"/>
       <c r="I293" s="5"/>
       <c r="J293" s="5"/>
-      <c r="K293" s="17"/>
+      <c r="K293" s="5"/>
       <c r="L293" s="17"/>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M293" s="17"/>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -6367,10 +6785,11 @@
       <c r="H294" s="5"/>
       <c r="I294" s="5"/>
       <c r="J294" s="5"/>
-      <c r="K294" s="17"/>
+      <c r="K294" s="5"/>
       <c r="L294" s="17"/>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M294" s="17"/>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -6381,10 +6800,11 @@
       <c r="H295" s="5"/>
       <c r="I295" s="5"/>
       <c r="J295" s="5"/>
-      <c r="K295" s="17"/>
+      <c r="K295" s="5"/>
       <c r="L295" s="17"/>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M295" s="17"/>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -6395,10 +6815,11 @@
       <c r="H296" s="5"/>
       <c r="I296" s="5"/>
       <c r="J296" s="5"/>
-      <c r="K296" s="17"/>
+      <c r="K296" s="5"/>
       <c r="L296" s="17"/>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M296" s="17"/>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -6409,10 +6830,11 @@
       <c r="H297" s="5"/>
       <c r="I297" s="5"/>
       <c r="J297" s="5"/>
-      <c r="K297" s="17"/>
+      <c r="K297" s="5"/>
       <c r="L297" s="17"/>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M297" s="17"/>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -6423,10 +6845,11 @@
       <c r="H298" s="5"/>
       <c r="I298" s="5"/>
       <c r="J298" s="5"/>
-      <c r="K298" s="17"/>
+      <c r="K298" s="5"/>
       <c r="L298" s="17"/>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M298" s="17"/>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -6437,10 +6860,11 @@
       <c r="H299" s="5"/>
       <c r="I299" s="5"/>
       <c r="J299" s="5"/>
-      <c r="K299" s="17"/>
+      <c r="K299" s="5"/>
       <c r="L299" s="17"/>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M299" s="17"/>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -6451,10 +6875,11 @@
       <c r="H300" s="5"/>
       <c r="I300" s="5"/>
       <c r="J300" s="5"/>
-      <c r="K300" s="17"/>
+      <c r="K300" s="5"/>
       <c r="L300" s="17"/>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M300" s="17"/>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -6465,10 +6890,11 @@
       <c r="H301" s="5"/>
       <c r="I301" s="5"/>
       <c r="J301" s="5"/>
-      <c r="K301" s="17"/>
+      <c r="K301" s="5"/>
       <c r="L301" s="17"/>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M301" s="17"/>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -6479,10 +6905,11 @@
       <c r="H302" s="5"/>
       <c r="I302" s="5"/>
       <c r="J302" s="5"/>
-      <c r="K302" s="17"/>
+      <c r="K302" s="5"/>
       <c r="L302" s="17"/>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M302" s="17"/>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -6493,10 +6920,11 @@
       <c r="H303" s="5"/>
       <c r="I303" s="5"/>
       <c r="J303" s="5"/>
-      <c r="K303" s="17"/>
+      <c r="K303" s="5"/>
       <c r="L303" s="17"/>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M303" s="17"/>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -6507,10 +6935,11 @@
       <c r="H304" s="5"/>
       <c r="I304" s="5"/>
       <c r="J304" s="5"/>
-      <c r="K304" s="17"/>
+      <c r="K304" s="5"/>
       <c r="L304" s="17"/>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M304" s="17"/>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -6521,10 +6950,11 @@
       <c r="H305" s="5"/>
       <c r="I305" s="5"/>
       <c r="J305" s="5"/>
-      <c r="K305" s="17"/>
+      <c r="K305" s="5"/>
       <c r="L305" s="17"/>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M305" s="17"/>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -6535,10 +6965,11 @@
       <c r="H306" s="5"/>
       <c r="I306" s="5"/>
       <c r="J306" s="5"/>
-      <c r="K306" s="17"/>
+      <c r="K306" s="5"/>
       <c r="L306" s="17"/>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M306" s="17"/>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -6549,10 +6980,11 @@
       <c r="H307" s="5"/>
       <c r="I307" s="5"/>
       <c r="J307" s="5"/>
-      <c r="K307" s="17"/>
+      <c r="K307" s="5"/>
       <c r="L307" s="17"/>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M307" s="17"/>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -6563,10 +6995,11 @@
       <c r="H308" s="5"/>
       <c r="I308" s="5"/>
       <c r="J308" s="5"/>
-      <c r="K308" s="17"/>
+      <c r="K308" s="5"/>
       <c r="L308" s="17"/>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M308" s="17"/>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -6577,10 +7010,11 @@
       <c r="H309" s="5"/>
       <c r="I309" s="5"/>
       <c r="J309" s="5"/>
-      <c r="K309" s="17"/>
+      <c r="K309" s="5"/>
       <c r="L309" s="17"/>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M309" s="17"/>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -6591,10 +7025,11 @@
       <c r="H310" s="5"/>
       <c r="I310" s="5"/>
       <c r="J310" s="5"/>
-      <c r="K310" s="17"/>
+      <c r="K310" s="5"/>
       <c r="L310" s="17"/>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M310" s="17"/>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -6605,10 +7040,11 @@
       <c r="H311" s="5"/>
       <c r="I311" s="5"/>
       <c r="J311" s="5"/>
-      <c r="K311" s="17"/>
+      <c r="K311" s="5"/>
       <c r="L311" s="17"/>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M311" s="17"/>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -6619,10 +7055,11 @@
       <c r="H312" s="5"/>
       <c r="I312" s="5"/>
       <c r="J312" s="5"/>
-      <c r="K312" s="17"/>
+      <c r="K312" s="5"/>
       <c r="L312" s="17"/>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M312" s="17"/>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -6633,10 +7070,11 @@
       <c r="H313" s="5"/>
       <c r="I313" s="5"/>
       <c r="J313" s="5"/>
-      <c r="K313" s="17"/>
+      <c r="K313" s="5"/>
       <c r="L313" s="17"/>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M313" s="17"/>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -6647,10 +7085,11 @@
       <c r="H314" s="5"/>
       <c r="I314" s="5"/>
       <c r="J314" s="5"/>
-      <c r="K314" s="17"/>
+      <c r="K314" s="5"/>
       <c r="L314" s="17"/>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M314" s="17"/>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -6661,10 +7100,11 @@
       <c r="H315" s="5"/>
       <c r="I315" s="5"/>
       <c r="J315" s="5"/>
-      <c r="K315" s="17"/>
+      <c r="K315" s="5"/>
       <c r="L315" s="17"/>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M315" s="17"/>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -6675,10 +7115,11 @@
       <c r="H316" s="5"/>
       <c r="I316" s="5"/>
       <c r="J316" s="5"/>
-      <c r="K316" s="17"/>
+      <c r="K316" s="5"/>
       <c r="L316" s="17"/>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M316" s="17"/>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -6689,10 +7130,11 @@
       <c r="H317" s="5"/>
       <c r="I317" s="5"/>
       <c r="J317" s="5"/>
-      <c r="K317" s="17"/>
+      <c r="K317" s="5"/>
       <c r="L317" s="17"/>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M317" s="17"/>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -6703,10 +7145,11 @@
       <c r="H318" s="5"/>
       <c r="I318" s="5"/>
       <c r="J318" s="5"/>
-      <c r="K318" s="17"/>
+      <c r="K318" s="5"/>
       <c r="L318" s="17"/>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M318" s="17"/>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -6717,10 +7160,11 @@
       <c r="H319" s="5"/>
       <c r="I319" s="5"/>
       <c r="J319" s="5"/>
-      <c r="K319" s="17"/>
+      <c r="K319" s="5"/>
       <c r="L319" s="17"/>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M319" s="17"/>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -6731,8 +7175,9 @@
       <c r="H320" s="5"/>
       <c r="I320" s="5"/>
       <c r="J320" s="5"/>
-      <c r="K320" s="17"/>
+      <c r="K320" s="5"/>
       <c r="L320" s="17"/>
+      <c r="M320" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -6750,13 +7195,13 @@
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!ThisWorkbook.openUI">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>14</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>324196</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>58189</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>16</xdr:col>
+                    <xdr:col>17</xdr:col>
                     <xdr:colOff>548640</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>

--- a/Data6.xlsx
+++ b/Data6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\# Bioelectronics\4th year\Indoor-Localiztion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92FD783-7CFB-494E-9C3B-A69779C764FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A125755-107C-46A5-BE98-AAB81D18F94C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -751,8 +751,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="T48" sqref="T48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
@@ -820,10 +820,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="6">
         <v>-66</v>
@@ -861,10 +861,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="10">
         <v>-67</v>
@@ -902,10 +902,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="6">
         <v>-99</v>
@@ -943,10 +943,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="6">
         <v>-65</v>
@@ -984,10 +984,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="6">
         <v>-68</v>
@@ -1025,10 +1025,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="6">
         <v>-75</v>
@@ -1066,10 +1066,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="6">
         <v>-99</v>
@@ -1107,10 +1107,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="7">
         <v>-99</v>
@@ -1148,10 +1148,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="6">
         <v>-67</v>
@@ -1189,10 +1189,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="10">
         <v>-77</v>
@@ -1230,10 +1230,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="10">
         <v>-66</v>
@@ -1271,10 +1271,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" s="10">
         <v>-68</v>
@@ -1312,10 +1312,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="10">
         <v>-73</v>
@@ -1353,10 +1353,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" s="10">
         <v>-67</v>
@@ -1394,10 +1394,10 @@
         <v>7</v>
       </c>
       <c r="C16" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="10">
         <v>-74</v>
@@ -1435,10 +1435,10 @@
         <v>7</v>
       </c>
       <c r="C17" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" s="5">
         <v>-57</v>
@@ -1476,10 +1476,10 @@
         <v>7</v>
       </c>
       <c r="C18" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="5">
         <v>-58</v>
@@ -1517,10 +1517,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" s="5">
         <v>-62</v>
@@ -1558,10 +1558,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="4">
         <v>-62</v>
@@ -1599,10 +1599,10 @@
         <v>7</v>
       </c>
       <c r="C21" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" s="5">
         <v>-58</v>
@@ -1640,10 +1640,10 @@
         <v>7</v>
       </c>
       <c r="C22" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" s="5">
         <v>-70</v>
@@ -1681,10 +1681,10 @@
         <v>7</v>
       </c>
       <c r="C23" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" s="5">
         <v>-71</v>
@@ -1722,10 +1722,10 @@
         <v>7</v>
       </c>
       <c r="C24" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" s="5">
         <v>-74</v>
@@ -1763,10 +1763,10 @@
         <v>7</v>
       </c>
       <c r="C25" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" s="5">
         <v>-60</v>
@@ -1804,10 +1804,10 @@
         <v>7</v>
       </c>
       <c r="C26" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" s="5">
         <v>-64</v>
@@ -1845,10 +1845,10 @@
         <v>7</v>
       </c>
       <c r="C27" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" s="4">
         <v>-66</v>
@@ -1886,10 +1886,10 @@
         <v>7</v>
       </c>
       <c r="C28" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" s="5">
         <v>-68</v>
@@ -1927,10 +1927,10 @@
         <v>7</v>
       </c>
       <c r="C29" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" s="5">
         <v>-62</v>
@@ -1968,10 +1968,10 @@
         <v>7</v>
       </c>
       <c r="C30" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30" s="5">
         <v>-99</v>
@@ -2009,10 +2009,10 @@
         <v>7</v>
       </c>
       <c r="C31" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E31" s="5">
         <v>-61</v>
@@ -2050,10 +2050,10 @@
         <v>7</v>
       </c>
       <c r="C32" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E32" s="5">
         <v>-73</v>
@@ -2091,10 +2091,10 @@
         <v>7</v>
       </c>
       <c r="C33" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E33" s="5">
         <v>-55</v>
@@ -2132,10 +2132,10 @@
         <v>7</v>
       </c>
       <c r="C34" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E34" s="5">
         <v>-69</v>
@@ -2173,10 +2173,10 @@
         <v>7</v>
       </c>
       <c r="C35" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E35" s="5">
         <v>-71</v>
@@ -2214,10 +2214,10 @@
         <v>7</v>
       </c>
       <c r="C36" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36" s="5">
         <v>-99</v>
@@ -2255,10 +2255,10 @@
         <v>7</v>
       </c>
       <c r="C37" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E37" s="5">
         <v>-99</v>
@@ -2296,10 +2296,10 @@
         <v>7</v>
       </c>
       <c r="C38" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E38" s="5">
         <v>-70</v>
@@ -2337,10 +2337,10 @@
         <v>7</v>
       </c>
       <c r="C39" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E39" s="5">
         <v>-66</v>
@@ -2378,10 +2378,10 @@
         <v>7</v>
       </c>
       <c r="C40" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40" s="5">
         <v>-65</v>
@@ -2419,10 +2419,10 @@
         <v>7</v>
       </c>
       <c r="C41" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E41" s="5">
         <v>-62</v>
@@ -2460,10 +2460,10 @@
         <v>7</v>
       </c>
       <c r="C42" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E42" s="5">
         <v>-65</v>
@@ -2501,10 +2501,10 @@
         <v>7</v>
       </c>
       <c r="C43" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E43" s="5">
         <v>-99</v>
@@ -2542,10 +2542,10 @@
         <v>7</v>
       </c>
       <c r="C44" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E44" s="5">
         <v>-63</v>
@@ -2583,10 +2583,10 @@
         <v>7</v>
       </c>
       <c r="C45" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E45" s="5">
         <v>-70</v>
@@ -2624,10 +2624,10 @@
         <v>7</v>
       </c>
       <c r="C46" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E46" s="5">
         <v>-66</v>
@@ -2665,10 +2665,10 @@
         <v>7</v>
       </c>
       <c r="C47" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E47" s="5">
         <v>-74</v>
@@ -2706,10 +2706,10 @@
         <v>7</v>
       </c>
       <c r="C48" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E48" s="5">
         <v>-71</v>
@@ -2747,10 +2747,10 @@
         <v>7</v>
       </c>
       <c r="C49" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E49" s="5">
         <v>-69</v>
@@ -2788,10 +2788,10 @@
         <v>7</v>
       </c>
       <c r="C50" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E50" s="5">
         <v>-64</v>
@@ -2829,10 +2829,10 @@
         <v>7</v>
       </c>
       <c r="C51" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E51" s="5">
         <v>-66</v>
@@ -2870,10 +2870,10 @@
         <v>7</v>
       </c>
       <c r="C52" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E52" s="5">
         <v>-76</v>
@@ -2911,10 +2911,10 @@
         <v>7</v>
       </c>
       <c r="C53" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E53" s="5">
         <v>-67</v>
@@ -2952,10 +2952,10 @@
         <v>7</v>
       </c>
       <c r="C54" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E54" s="5">
         <v>-99</v>
@@ -2993,10 +2993,10 @@
         <v>7</v>
       </c>
       <c r="C55" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D55" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E55" s="5">
         <v>-99</v>
@@ -3034,10 +3034,10 @@
         <v>7</v>
       </c>
       <c r="C56" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D56" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E56" s="5">
         <v>-61</v>
@@ -3075,10 +3075,10 @@
         <v>7</v>
       </c>
       <c r="C57" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D57" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E57" s="5">
         <v>-61</v>
@@ -3116,10 +3116,10 @@
         <v>7</v>
       </c>
       <c r="C58" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D58" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E58" s="5">
         <v>-64</v>
@@ -3157,10 +3157,10 @@
         <v>7</v>
       </c>
       <c r="C59" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D59" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E59" s="5">
         <v>-66</v>
@@ -3198,10 +3198,10 @@
         <v>7</v>
       </c>
       <c r="C60" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D60" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E60" s="5">
         <v>-59</v>
@@ -3239,10 +3239,10 @@
         <v>7</v>
       </c>
       <c r="C61" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D61" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E61" s="5">
         <v>-64</v>
